--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>比值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收盘价（5-16）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,6 +276,26 @@
   </si>
   <si>
     <t>都是越大越好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用比值越大，同比例的费用，做一手的性价比越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越小说明波动越大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,8 +304,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -362,8 +378,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -672,18 +688,21 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -706,18 +725,27 @@
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4">
         <v>107.04</v>
+      </c>
+      <c r="C4">
+        <v>9048</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -739,16 +767,23 @@
         <f>B4*D4/G4</f>
         <v>107.04</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5">
+        <f>C4/B4</f>
+        <v>84.529147982062781</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>58.8</v>
+      </c>
+      <c r="C5">
+        <v>2977</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -770,13 +805,20 @@
         <f>B5*D5/G5</f>
         <v>58.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="5">
+        <f>C5/B5</f>
+        <v>50.629251700680271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>67.38</v>
+      </c>
+      <c r="C6">
+        <v>3346</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -798,13 +840,20 @@
         <f>B6*D6/G6</f>
         <v>67.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="5">
+        <f>C6/B6</f>
+        <v>49.658652419115469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>72.36</v>
+      </c>
+      <c r="C7">
+        <v>5744</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -826,13 +875,20 @@
         <f>B7*D7/G7</f>
         <v>36.18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="5">
+        <f>C7/B7</f>
+        <v>79.380873410724163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>54.96</v>
+      </c>
+      <c r="C8">
+        <v>3678</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -854,13 +910,20 @@
         <f>B8*D8/G8</f>
         <v>54.96</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="5">
+        <f>C8/B8</f>
+        <v>66.921397379912662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
         <v>108.7</v>
+      </c>
+      <c r="C9">
+        <v>6715</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -882,13 +945,20 @@
         <f>B9*D9/G9</f>
         <v>21.74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="5">
+        <f>C9/B9</f>
+        <v>61.775528978840846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>46.56</v>
+      </c>
+      <c r="C10">
+        <v>2841</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -910,11 +980,15 @@
         <f>B10*D10/G10</f>
         <v>46.56</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5">
+        <f>C10/B10</f>
+        <v>61.018041237113401</v>
+      </c>
+      <c r="K10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -945,8 +1019,12 @@
         <f>B11*D11/G11</f>
         <v>78.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="5">
+        <f>C11/B11</f>
+        <v>46.782807731434382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -977,13 +1055,20 @@
         <f>B12*D12/G12</f>
         <v>118.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="5">
+        <f>C12/B12</f>
+        <v>78.195615514333895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <v>47.72</v>
+      </c>
+      <c r="C13">
+        <v>5511</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1005,13 +1090,20 @@
         <f>B13*D13/G13</f>
         <v>47.72</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="5">
+        <f>C13/B13</f>
+        <v>115.4861693210394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
         <v>23.44</v>
+      </c>
+      <c r="C14">
+        <v>1364</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -1033,8 +1125,12 @@
         <f>B14*D14/G14</f>
         <v>23.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="5">
+        <f>C14/B14</f>
+        <v>58.191126279863475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1065,13 +1161,20 @@
         <f>B15*D15/G15</f>
         <v>23.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="5">
+        <f>C15/B15</f>
+        <v>64.512711864406782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16">
         <v>68.8</v>
+      </c>
+      <c r="C16">
+        <v>5834</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1093,8 +1196,12 @@
         <f>B16*D16/G16</f>
         <v>34.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5">
+        <f>C16/B16</f>
+        <v>84.79651162790698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1125,13 +1232,20 @@
         <f>B17*D17/G17</f>
         <v>60.679999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5">
+        <f>C17/B17</f>
+        <v>66.298615688859599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>11.6</v>
+      </c>
+      <c r="C18">
+        <v>1768</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1153,13 +1267,24 @@
         <f>B18*D18/G18</f>
         <v>11.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5">
+        <f>C18/B18</f>
+        <v>152.41379310344828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:J18">
+  <sortState ref="A4:K18">
     <sortCondition descending="1" ref="H4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看主力合约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ATR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,14 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,82 +127,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>万0.72</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果（小时线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开仓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平今</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，算平均价，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.1</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,51 +168,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>万1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价（5-16）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平今</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越大越性价比高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>越小保证金效率越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格波幅比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PTA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PVC</t>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看主力合约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红的不做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于100不做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于100不做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万1.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价（5-16）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实跳动档数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是越大越好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用比值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用比值越大，同比例的费用，做一手的性价比越高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格比值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>越小说明波动越大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +271,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +313,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,14 +343,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -676,106 +651,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="9" max="10" width="15" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="7" width="0.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10" ht="27.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>107.04</v>
-      </c>
-      <c r="C4">
-        <v>9048</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <f>B4*D4/F4</f>
-        <v>509.71428571428572</v>
-      </c>
-      <c r="I4" s="5">
-        <f>B4*D4/G4</f>
-        <v>107.04</v>
-      </c>
-      <c r="J4" s="5">
-        <f>C4/B4</f>
-        <v>84.529147982062781</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -789,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>1.8</v>
@@ -798,103 +743,91 @@
         <v>10</v>
       </c>
       <c r="H5" s="5">
-        <f>B5*D5/F5</f>
+        <f t="shared" ref="H5:H16" si="0">B5*D5/F5</f>
         <v>326.66666666666669</v>
       </c>
       <c r="I5" s="5">
-        <f>B5*D5/G5</f>
-        <v>58.8</v>
-      </c>
-      <c r="J5" s="5">
-        <f>C5/B5</f>
+        <f t="shared" ref="I5:I16" si="1">C5/B5</f>
         <v>50.629251700680271</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>67.38</v>
+        <v>72.36</v>
       </c>
       <c r="C6">
-        <v>3346</v>
+        <v>5744</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>241.20000000000002</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>79.380873410724163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>54.96</v>
+      </c>
+      <c r="C7">
+        <v>3678</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
         <v>2.4</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5">
-        <f>B6*D6/F6</f>
-        <v>280.75</v>
-      </c>
-      <c r="I6" s="5">
-        <f>B6*D6/G6</f>
-        <v>67.38</v>
-      </c>
-      <c r="J6" s="5">
-        <f>C6/B6</f>
-        <v>49.658652419115469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>72.36</v>
-      </c>
-      <c r="C7">
-        <v>5744</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
       <c r="G7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5">
-        <f>B7*D7/F7</f>
-        <v>241.20000000000002</v>
+        <f t="shared" si="0"/>
+        <v>229.00000000000003</v>
       </c>
       <c r="I7" s="5">
-        <f>B7*D7/G7</f>
-        <v>36.18</v>
-      </c>
-      <c r="J7" s="5">
-        <f>C7/B7</f>
-        <v>79.380873410724163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <f t="shared" si="1"/>
+        <v>66.921397379912662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>54.96</v>
+        <v>46.56</v>
       </c>
       <c r="C8">
-        <v>3678</v>
+        <v>2841</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>2.4</v>
@@ -903,388 +836,296 @@
         <v>10</v>
       </c>
       <c r="H8" s="5">
-        <f>B8*D8/F8</f>
-        <v>229.00000000000003</v>
+        <f t="shared" si="0"/>
+        <v>194.00000000000003</v>
       </c>
       <c r="I8" s="5">
-        <f>B8*D8/G8</f>
-        <v>54.96</v>
-      </c>
-      <c r="J8" s="5">
-        <f>C8/B8</f>
-        <v>66.921397379912662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <f t="shared" si="1"/>
+        <v>61.018041237113401</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>108.7</v>
+        <v>78.64</v>
       </c>
       <c r="C9">
-        <v>6715</v>
+        <v>3679</v>
       </c>
       <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
+        <f>C9*D9*0.00012</f>
+        <v>4.4148000000000005</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>178.12811452387422</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>46.782807731434382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>118.6</v>
+      </c>
+      <c r="C10">
+        <v>9274</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10*D10*0.000072</f>
+        <v>3.3386400000000003</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>177.61723336448372</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>78.195615514333895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6">
+        <v>47.72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5511</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>132.55555555555554</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>115.4861693210394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5">
-        <f>B9*D9/F9</f>
-        <v>226.45833333333334</v>
-      </c>
-      <c r="I9" s="5">
-        <f>B9*D9/G9</f>
-        <v>21.74</v>
-      </c>
-      <c r="J9" s="5">
-        <f>C9/B9</f>
-        <v>61.775528978840846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>46.56</v>
-      </c>
-      <c r="C10">
-        <v>2841</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5">
-        <f>B10*D10/F10</f>
-        <v>194.00000000000003</v>
-      </c>
-      <c r="I10" s="5">
-        <f>B10*D10/G10</f>
-        <v>46.56</v>
-      </c>
-      <c r="J10" s="5">
-        <f>C10/B10</f>
-        <v>61.018041237113401</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="B12">
+        <v>23.44</v>
+      </c>
+      <c r="C12">
+        <v>1364</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>130.22222222222223</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>58.191126279863475</v>
+      </c>
+      <c r="J12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>47.2</v>
+      </c>
+      <c r="C13">
+        <v>3045</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>78.64</v>
-      </c>
-      <c r="C11">
-        <v>3679</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4">
-        <f>C11*D11*0.00012</f>
-        <v>4.4148000000000005</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5">
-        <f>B11*D11/F11</f>
-        <v>178.12811452387422</v>
-      </c>
-      <c r="I11" s="5">
-        <f>B11*D11/G11</f>
-        <v>78.64</v>
-      </c>
-      <c r="J11" s="5">
-        <f>C11/B11</f>
-        <v>46.782807731434382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>118.6</v>
-      </c>
-      <c r="C12">
-        <v>9274</v>
-      </c>
-      <c r="D12">
+      <c r="F13" s="4">
+        <f>C13*D13*0.00012</f>
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>129.17350848385331</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>64.512711864406782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>68.8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5834</v>
+      </c>
+      <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4">
-        <f>C12*D12*0.000072</f>
-        <v>3.3386400000000003</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <f>B12*D12/F12</f>
-        <v>177.61723336448372</v>
-      </c>
-      <c r="I12" s="5">
-        <f>B12*D12/G12</f>
-        <v>118.6</v>
-      </c>
-      <c r="J12" s="5">
-        <f>C12/B12</f>
-        <v>78.195615514333895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>47.72</v>
-      </c>
-      <c r="C13">
-        <v>5511</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8">
         <v>3.6</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5">
-        <f>B13*D13/F13</f>
-        <v>132.55555555555554</v>
-      </c>
-      <c r="I13" s="5">
-        <f>B13*D13/G13</f>
-        <v>47.72</v>
-      </c>
-      <c r="J13" s="5">
-        <f>C13/B13</f>
-        <v>115.4861693210394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>23.44</v>
-      </c>
-      <c r="C14">
-        <v>1364</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14" s="5">
-        <f>B14*D14/F14</f>
-        <v>130.22222222222223</v>
-      </c>
-      <c r="I14" s="5">
-        <f>B14*D14/G14</f>
-        <v>23.44</v>
-      </c>
-      <c r="J14" s="5">
-        <f>C14/B14</f>
-        <v>58.191126279863475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>47.2</v>
-      </c>
-      <c r="C15">
-        <v>3045</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4">
-        <f>C15*D15*0.00012</f>
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5">
-        <f>B15*D15/F15</f>
-        <v>129.17350848385331</v>
-      </c>
-      <c r="I15" s="5">
-        <f>B15*D15/G15</f>
-        <v>23.6</v>
-      </c>
-      <c r="J15" s="5">
-        <f>C15/B15</f>
-        <v>64.512711864406782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>95.555555555555557</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>84.79651162790698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6">
+        <v>60.68</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4023</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8">
+        <f>C15*D15*0.00018</f>
+        <v>7.2414000000000005</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>83.795951059187445</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>66.298615688859599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1768</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>80.555555555555557</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>152.41379310344828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>68.8</v>
-      </c>
-      <c r="C16">
-        <v>5834</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
-        <f>B16*D16/F16</f>
-        <v>95.555555555555557</v>
-      </c>
-      <c r="I16" s="5">
-        <f>B16*D16/G16</f>
-        <v>34.4</v>
-      </c>
-      <c r="J16" s="5">
-        <f>C16/B16</f>
-        <v>84.79651162790698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>60.68</v>
-      </c>
-      <c r="C17">
-        <v>4023</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="4">
-        <f>C17*D17*0.00018</f>
-        <v>7.2414000000000005</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
       <c r="H17" s="5">
-        <f>B17*D17/F17</f>
-        <v>83.795951059187445</v>
+        <f>AVERAGE(H5:H16)</f>
+        <v>166.53919691557954</v>
       </c>
       <c r="I17" s="5">
-        <f>B17*D17/G17</f>
-        <v>60.679999999999993</v>
-      </c>
-      <c r="J17" s="5">
-        <f>C17/B17</f>
-        <v>66.298615688859599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>11.6</v>
-      </c>
-      <c r="C18">
-        <v>1768</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5">
-        <f>B18*D18/F18</f>
-        <v>80.555555555555557</v>
-      </c>
-      <c r="I18" s="5">
-        <f>B18*D18/G18</f>
-        <v>11.6</v>
-      </c>
-      <c r="J18" s="5">
-        <f>C18/B18</f>
-        <v>152.41379310344828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>33</v>
-      </c>
+        <f>AVERAGE(I5:I16)</f>
+        <v>77.05224290497695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A4:K18">
+  <sortState ref="A4:K17">
     <sortCondition descending="1" ref="H4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>ATR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,6 +259,264 @@
   <si>
     <t>万0.72</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收盘的波幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高价的波幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低价的波幅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%       1.000813     0.006362     0.004963</t>
+  </si>
+  <si>
+    <t>75%       1.007651     0.013686     0.011878</t>
+  </si>
+  <si>
+    <t>rb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ma20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ma20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%       1.000000     0.005733     0.005727</t>
+  </si>
+  <si>
+    <t>75%       1.006110     0.011901     0.011595</t>
+  </si>
+  <si>
+    <t>50%       0.998983     0.005194     0.006460</t>
+  </si>
+  <si>
+    <t>75%       1.005489     0.010763     0.012421</t>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%       1.000000     0.005061     0.005657</t>
+  </si>
+  <si>
+    <t>75%       1.006050     0.010717     0.012289</t>
+  </si>
+  <si>
+    <t>50%       1.000592     0.006196     0.004675</t>
+  </si>
+  <si>
+    <t>75%       1.007975     0.013661     0.010912</t>
+  </si>
+  <si>
+    <t>50%       1.000000     0.005589     0.005177</t>
+  </si>
+  <si>
+    <t>75%       1.006482     0.011547     0.011128</t>
+  </si>
+  <si>
+    <t>50%      0.999627    0.008889    0.008560</t>
+  </si>
+  <si>
+    <t>75%      1.008162    0.016135    0.015823</t>
+  </si>
+  <si>
+    <t>50%      0.999514    0.009226    0.008348</t>
+  </si>
+  <si>
+    <t>75%      1.010909    0.019840    0.015652</t>
+  </si>
+  <si>
+    <t>50%      1.000000    0.008237    0.009727</t>
+  </si>
+  <si>
+    <t>75%      1.007948    0.014736    0.018344</t>
+  </si>
+  <si>
+    <t>pp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%       0.999509     0.007097     0.007331</t>
+  </si>
+  <si>
+    <t>75%       1.007344     0.013964     0.014007</t>
+  </si>
+  <si>
+    <t>50%      0.998603    0.006312    0.007367</t>
+  </si>
+  <si>
+    <t>75%      1.006305    0.012720    0.014815</t>
+  </si>
+  <si>
+    <t>50%      1.000223    0.008811    0.007637</t>
+  </si>
+  <si>
+    <t>75%      1.009432    0.017493    0.015174</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%       1.000518     0.005391     0.003985</t>
+  </si>
+  <si>
+    <t>75%       1.006107     0.010753     0.008929</t>
+  </si>
+  <si>
+    <t>50%       1.000000     0.004087     0.004585</t>
+  </si>
+  <si>
+    <t>75%       1.004857     0.008963     0.009808</t>
+  </si>
+  <si>
+    <t>50%       1.000000     0.004702     0.004262</t>
+  </si>
+  <si>
+    <t>75%       1.004998     0.009253     0.008975</t>
+  </si>
+  <si>
+    <t>hc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%      1.000000    0.007902    0.007580</t>
+  </si>
+  <si>
+    <t>75%      1.008154    0.016409    0.015752</t>
+  </si>
+  <si>
+    <t>50%      0.998739    0.006262    0.007436</t>
+  </si>
+  <si>
+    <t>75%      1.006531    0.014803    0.015311</t>
+  </si>
+  <si>
+    <t>50%      1.000000    0.009304    0.007918</t>
+  </si>
+  <si>
+    <t>75%      1.010497    0.020840    0.018064</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%      1.000000    0.005853    0.005231</t>
+  </si>
+  <si>
+    <t>75%      1.006862    0.012845    0.012867</t>
+  </si>
+  <si>
+    <t>50%      0.999511    0.004687    0.005710</t>
+  </si>
+  <si>
+    <t>75%      1.006204    0.010775    0.013008</t>
+  </si>
+  <si>
+    <t>50%       1.000000     0.005365     0.005482</t>
+  </si>
+  <si>
+    <t>75%       1.006096     0.011220     0.012037</t>
+  </si>
+  <si>
+    <t>50%       1.000634     0.006426     0.004740</t>
+  </si>
+  <si>
+    <t>75%       1.008072     0.012851     0.010403</t>
+  </si>
+  <si>
+    <t>50%       1.000000     0.005500     0.005337</t>
+  </si>
+  <si>
+    <t>75%       1.006449     0.010441     0.011629</t>
+  </si>
+  <si>
+    <t>50%       1.000300     0.005948     0.004998</t>
+  </si>
+  <si>
+    <t>75%       1.006590     0.011021     0.010348</t>
   </si>
 </sst>
 </file>
@@ -818,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1015,11 +1273,11 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>C9*D9</f>
+        <f t="shared" ref="E9:E22" si="0">C9*D9</f>
         <v>30510</v>
       </c>
       <c r="F9" s="9">
-        <f>B9*D9</f>
+        <f t="shared" ref="F9:F22" si="1">B9*D9</f>
         <v>586.59999999999991</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1032,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="J9" s="27">
-        <f>F9/H9</f>
+        <f t="shared" ref="J9:J22" si="2">F9/H9</f>
         <v>325.88888888888886</v>
       </c>
       <c r="K9" s="28">
-        <f>B9/C9</f>
+        <f t="shared" ref="K9:K22" si="3">B9/C9</f>
         <v>1.9226483120288428E-2</v>
       </c>
       <c r="L9" s="27">
-        <f>F9/I9</f>
+        <f t="shared" ref="L9:L22" si="4">F9/I9</f>
         <v>58.659999999999989</v>
       </c>
       <c r="M9" s="18">
-        <f>H9/L9</f>
+        <f t="shared" ref="M9:M22" si="5">H9/L9</f>
         <v>3.0685305148312313E-2</v>
       </c>
       <c r="O9" s="22">
@@ -1057,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="R9" s="22">
-        <f>SUM(O9:Q9)</f>
+        <f t="shared" ref="R9:R22" si="6">SUM(O9:Q9)</f>
         <v>92</v>
       </c>
     </row>
@@ -1075,11 +1333,11 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>37220</v>
       </c>
       <c r="F10" s="9">
-        <f>B10*D10</f>
+        <f t="shared" si="1"/>
         <v>792.2</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1093,19 +1351,19 @@
         <v>10</v>
       </c>
       <c r="J10" s="27">
-        <f>F10/H10</f>
+        <f t="shared" si="2"/>
         <v>177.36879813720222</v>
       </c>
       <c r="K10" s="28">
-        <f>B10/C10</f>
+        <f t="shared" si="3"/>
         <v>2.1284255776464266E-2</v>
       </c>
       <c r="L10" s="27">
-        <f>F10/I10</f>
+        <f t="shared" si="4"/>
         <v>79.22</v>
       </c>
       <c r="M10" s="14">
-        <f>H10/L10</f>
+        <f t="shared" si="5"/>
         <v>5.6379702095430452E-2</v>
       </c>
       <c r="O10" s="22">
@@ -1118,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="R10" s="22">
-        <f>SUM(O10:Q10)</f>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
     </row>
@@ -1136,11 +1394,11 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>25120</v>
       </c>
       <c r="F11" s="9">
-        <f>B11*D11</f>
+        <f t="shared" si="1"/>
         <v>469.4</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1153,19 +1411,19 @@
         <v>10</v>
       </c>
       <c r="J11" s="27">
-        <f>F11/H11</f>
+        <f t="shared" si="2"/>
         <v>260.77777777777777</v>
       </c>
       <c r="K11" s="28">
-        <f>B11/C11</f>
+        <f t="shared" si="3"/>
         <v>1.8686305732484077E-2</v>
       </c>
       <c r="L11" s="27">
-        <f>F11/I11</f>
+        <f t="shared" si="4"/>
         <v>46.94</v>
       </c>
       <c r="M11" s="18">
-        <f>H11/L11</f>
+        <f t="shared" si="5"/>
         <v>3.8346825734980827E-2</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -1181,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="R11" s="22">
-        <f>SUM(O11:Q11)</f>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
@@ -1199,11 +1457,11 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>38630</v>
       </c>
       <c r="F12" s="9">
-        <f>B12*D12</f>
+        <f t="shared" si="1"/>
         <v>805.6</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1217,19 +1475,19 @@
         <v>10</v>
       </c>
       <c r="J12" s="27">
-        <f>F12/H12</f>
+        <f t="shared" si="2"/>
         <v>173.78548623694883</v>
       </c>
       <c r="K12" s="28">
-        <f>B12/C12</f>
+        <f t="shared" si="3"/>
         <v>2.0854258348433859E-2</v>
       </c>
       <c r="L12" s="27">
-        <f>F12/I12</f>
+        <f t="shared" si="4"/>
         <v>80.56</v>
       </c>
       <c r="M12" s="14">
-        <f>H12/L12</f>
+        <f t="shared" si="5"/>
         <v>5.7542204568023836E-2</v>
       </c>
       <c r="N12" s="8"/>
@@ -1243,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="R12" s="22">
-        <f>SUM(O12:Q12)</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
     </row>
@@ -1261,11 +1519,11 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>37240</v>
       </c>
       <c r="F13" s="9">
-        <f>B13*D13</f>
+        <f t="shared" si="1"/>
         <v>575.79999999999995</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1278,19 +1536,19 @@
         <v>10</v>
       </c>
       <c r="J13" s="27">
-        <f>F13/H13</f>
+        <f t="shared" si="2"/>
         <v>239.91666666666666</v>
       </c>
       <c r="K13" s="28">
-        <f>B13/C13</f>
+        <f t="shared" si="3"/>
         <v>1.5461868958109559E-2</v>
       </c>
       <c r="L13" s="27">
-        <f>F13/I13</f>
+        <f t="shared" si="4"/>
         <v>57.58</v>
       </c>
       <c r="M13" s="18">
-        <f>H13/L13</f>
+        <f t="shared" si="5"/>
         <v>4.1681139284473777E-2</v>
       </c>
       <c r="O13" s="22">
@@ -1303,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="22">
-        <f>SUM(O13:Q13)</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -1321,11 +1579,11 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>27810</v>
       </c>
       <c r="F14" s="9">
-        <f>B14*D14</f>
+        <f t="shared" si="1"/>
         <v>476.8</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1338,19 +1596,19 @@
         <v>10</v>
       </c>
       <c r="J14" s="27">
-        <f>F14/H14</f>
+        <f t="shared" si="2"/>
         <v>198.66666666666669</v>
       </c>
       <c r="K14" s="28">
-        <f>B14/C14</f>
+        <f t="shared" si="3"/>
         <v>1.7144911902193454E-2</v>
       </c>
       <c r="L14" s="27">
-        <f>F14/I14</f>
+        <f t="shared" si="4"/>
         <v>47.68</v>
       </c>
       <c r="M14" s="18">
-        <f>H14/L14</f>
+        <f t="shared" si="5"/>
         <v>5.0335570469798654E-2</v>
       </c>
       <c r="N14" s="23" t="s">
@@ -1366,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="R14" s="22">
-        <f>SUM(O14:Q14)</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -1384,11 +1642,11 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>46555</v>
       </c>
       <c r="F15" s="9">
-        <f>B15*D15</f>
+        <f t="shared" si="1"/>
         <v>612.9</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1402,19 +1660,19 @@
         <v>5</v>
       </c>
       <c r="J15" s="27">
-        <f>F15/H15</f>
+        <f t="shared" si="2"/>
         <v>182.84824401245837</v>
       </c>
       <c r="K15" s="28">
-        <f>B15/C15</f>
+        <f t="shared" si="3"/>
         <v>1.3165073568897004E-2</v>
       </c>
       <c r="L15" s="27">
-        <f>F15/I15</f>
+        <f t="shared" si="4"/>
         <v>122.58</v>
       </c>
       <c r="M15" s="18">
-        <f>H15/L15</f>
+        <f t="shared" si="5"/>
         <v>2.7345080763582968E-2</v>
       </c>
       <c r="O15" s="22">
@@ -1427,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="R15" s="22">
-        <f>SUM(O15:Q15)</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -1445,11 +1703,11 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>59060</v>
       </c>
       <c r="F16" s="9">
-        <f>B16*D16</f>
+        <f t="shared" si="1"/>
         <v>753.6</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1462,19 +1720,19 @@
         <v>20</v>
       </c>
       <c r="J16" s="27">
-        <f>F16/H16</f>
+        <f t="shared" si="2"/>
         <v>251.20000000000002</v>
       </c>
       <c r="K16" s="28">
-        <f>B16/C16</f>
+        <f t="shared" si="3"/>
         <v>1.2759905181171689E-2</v>
       </c>
       <c r="L16" s="27">
-        <f>F16/I16</f>
+        <f t="shared" si="4"/>
         <v>37.68</v>
       </c>
       <c r="M16" s="14">
-        <f>H16/L16</f>
+        <f t="shared" si="5"/>
         <v>7.9617834394904455E-2</v>
       </c>
       <c r="O16" s="22">
@@ -1487,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="R16" s="22">
-        <f>SUM(O16:Q16)</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
     </row>
@@ -1505,11 +1763,11 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>31600</v>
       </c>
       <c r="F17" s="9">
-        <f>B17*D17</f>
+        <f t="shared" si="1"/>
         <v>564.4</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1523,19 +1781,19 @@
         <v>20</v>
       </c>
       <c r="J17" s="27">
-        <f>F17/H17</f>
+        <f t="shared" si="2"/>
         <v>148.83966244725738</v>
       </c>
       <c r="K17" s="28">
-        <f>B17/C17</f>
+        <f t="shared" si="3"/>
         <v>1.7860759493670886E-2</v>
       </c>
       <c r="L17" s="27">
-        <f>F17/I17</f>
+        <f t="shared" si="4"/>
         <v>28.22</v>
       </c>
       <c r="M17" s="17">
-        <f>H17/L17</f>
+        <f t="shared" si="5"/>
         <v>0.13437278525868179</v>
       </c>
       <c r="O17" s="22">
@@ -1548,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="R17" s="22">
-        <f>SUM(O17:Q17)</f>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
     </row>
@@ -1566,11 +1824,11 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>28960</v>
       </c>
       <c r="F18" s="9">
-        <f>B18*D18</f>
+        <f t="shared" si="1"/>
         <v>474</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -1583,19 +1841,19 @@
         <v>20</v>
       </c>
       <c r="J18" s="27">
-        <f>F18/H18</f>
+        <f t="shared" si="2"/>
         <v>131.66666666666666</v>
       </c>
       <c r="K18" s="28">
-        <f>B18/C18</f>
+        <f t="shared" si="3"/>
         <v>1.6367403314917126E-2</v>
       </c>
       <c r="L18" s="27">
-        <f>F18/I18</f>
+        <f t="shared" si="4"/>
         <v>23.7</v>
       </c>
       <c r="M18" s="17">
-        <f>H18/L18</f>
+        <f t="shared" si="5"/>
         <v>0.15189873417721519</v>
       </c>
       <c r="N18" s="23" t="s">
@@ -1611,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="R18" s="22">
-        <f>SUM(O18:Q18)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
     </row>
@@ -1629,11 +1887,11 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>40230</v>
       </c>
       <c r="F19" s="9">
-        <f>B19*D19</f>
+        <f t="shared" si="1"/>
         <v>606.79999999999995</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -1647,19 +1905,19 @@
         <v>10</v>
       </c>
       <c r="J19" s="27">
-        <f>F19/H19</f>
+        <f t="shared" si="2"/>
         <v>83.795951059187445</v>
       </c>
       <c r="K19" s="28">
-        <f>B19/C19</f>
+        <f t="shared" si="3"/>
         <v>1.5083271190653742E-2</v>
       </c>
       <c r="L19" s="27">
-        <f>F19/I19</f>
+        <f t="shared" si="4"/>
         <v>60.679999999999993</v>
       </c>
       <c r="M19" s="17">
-        <f>H19/L19</f>
+        <f t="shared" si="5"/>
         <v>0.11933750823994729</v>
       </c>
       <c r="O19" s="22">
@@ -1672,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="R19" s="22">
-        <f>SUM(O19:Q19)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
     </row>
@@ -1690,11 +1948,11 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>51970</v>
       </c>
       <c r="F20" s="9">
-        <f>B20*D20</f>
+        <f t="shared" si="1"/>
         <v>512.4</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -1707,19 +1965,19 @@
         <v>10</v>
       </c>
       <c r="J20" s="27">
-        <f>F20/H20</f>
+        <f t="shared" si="2"/>
         <v>142.33333333333331</v>
       </c>
       <c r="K20" s="28">
-        <f>B20/C20</f>
+        <f t="shared" si="3"/>
         <v>9.8595343467385039E-3</v>
       </c>
       <c r="L20" s="27">
-        <f>F20/I20</f>
+        <f t="shared" si="4"/>
         <v>51.239999999999995</v>
       </c>
       <c r="M20" s="14">
-        <f>H20/L20</f>
+        <f t="shared" si="5"/>
         <v>7.0257611241217807E-2</v>
       </c>
       <c r="O20" s="22">
@@ -1732,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="R20" s="22">
-        <f>SUM(O20:Q20)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
     </row>
@@ -1750,11 +2008,11 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>28590</v>
       </c>
       <c r="F21" s="9">
-        <f>B21*D21</f>
+        <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -1767,19 +2025,19 @@
         <v>10</v>
       </c>
       <c r="J21" s="27">
-        <f>F21/H21</f>
+        <f t="shared" si="2"/>
         <v>99.722222222222214</v>
       </c>
       <c r="K21" s="28">
-        <f>B21/C21</f>
+        <f t="shared" si="3"/>
         <v>1.2556838055264077E-2</v>
       </c>
       <c r="L21" s="27">
-        <f>F21/I21</f>
+        <f t="shared" si="4"/>
         <v>35.9</v>
       </c>
       <c r="M21" s="14">
-        <f>H21/L21</f>
+        <f t="shared" si="5"/>
         <v>0.10027855153203344</v>
       </c>
       <c r="N21"/>
@@ -1793,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="R21" s="22">
-        <f>SUM(O21:Q21)</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
     </row>
@@ -1811,11 +2069,11 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>17690</v>
       </c>
       <c r="F22" s="9">
-        <f>B22*D22</f>
+        <f t="shared" si="1"/>
         <v>124.80000000000001</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -1828,19 +2086,19 @@
         <v>10</v>
       </c>
       <c r="J22" s="27">
-        <f>F22/H22</f>
+        <f t="shared" si="2"/>
         <v>86.666666666666671</v>
       </c>
       <c r="K22" s="28">
-        <f>B22/C22</f>
+        <f t="shared" si="3"/>
         <v>7.0548332391181462E-3</v>
       </c>
       <c r="L22" s="27">
-        <f>F22/I22</f>
+        <f t="shared" si="4"/>
         <v>12.48</v>
       </c>
       <c r="M22" s="14">
-        <f>H22/L22</f>
+        <f t="shared" si="5"/>
         <v>0.11538461538461538</v>
       </c>
       <c r="O22" s="22">
@@ -1853,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="R22" s="22">
-        <f>SUM(O22:Q22)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
@@ -1908,14 +2166,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="百分比" sheetId="2" r:id="rId2"/>
+    <sheet name="50日ATR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>ATR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -517,6 +517,178 @@
   </si>
   <si>
     <t>75%       1.006590     0.011021     0.010348</t>
+  </si>
+  <si>
+    <t>白银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean    -0.009728    0.462246    0.476006</t>
+  </si>
+  <si>
+    <t>std      0.726219    0.537793    0.540030</t>
+  </si>
+  <si>
+    <t>min     -3.266995   -1.516173   -1.034774</t>
+  </si>
+  <si>
+    <t>25%     -0.392796    0.142981    0.146781</t>
+  </si>
+  <si>
+    <t>50%     -0.027740    0.379411    0.411034</t>
+  </si>
+  <si>
+    <t>75%      0.400825    0.732457    0.719187</t>
+  </si>
+  <si>
+    <t>max      2.928340    3.350697    3.443114</t>
+  </si>
+  <si>
+    <t>mean     -0.013485     0.482871     0.501483</t>
+  </si>
+  <si>
+    <t>std       0.762086     0.534301     0.560821</t>
+  </si>
+  <si>
+    <t>min      -3.535980    -1.642954    -2.450430</t>
+  </si>
+  <si>
+    <t>25%      -0.406013     0.162081     0.154103</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.379995     0.368324</t>
+  </si>
+  <si>
+    <t>75%       0.400761     0.690448     0.706930</t>
+  </si>
+  <si>
+    <t>max       4.474867     4.617899     4.685807</t>
+  </si>
+  <si>
+    <t>mean    -0.008127    0.512719    0.506630</t>
+  </si>
+  <si>
+    <t>std      0.757451    0.531509    0.519453</t>
+  </si>
+  <si>
+    <t>min     -4.031117   -1.744460   -0.599201</t>
+  </si>
+  <si>
+    <t>25%     -0.414365    0.172525    0.162470</t>
+  </si>
+  <si>
+    <t>50%      0.000000    0.382487    0.371211</t>
+  </si>
+  <si>
+    <t>75%      0.397940    0.715471    0.731383</t>
+  </si>
+  <si>
+    <t>max      3.385947    3.872718    5.021216</t>
+  </si>
+  <si>
+    <t>mean      0.024117     0.465565     0.424946</t>
+  </si>
+  <si>
+    <t>std       0.775866     0.651418     0.617850</t>
+  </si>
+  <si>
+    <t>min      -3.082672    -1.994739    -3.224438</t>
+  </si>
+  <si>
+    <t>25%      -0.420673     0.112486     0.063004</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.376648     0.354610</t>
+  </si>
+  <si>
+    <t>75%       0.434439     0.744961     0.724888</t>
+  </si>
+  <si>
+    <t>max       4.401736     9.770115     5.477528</t>
+  </si>
+  <si>
+    <t>mean      0.017496     0.470254     0.430012</t>
+  </si>
+  <si>
+    <t>std       0.769698     0.632865     0.630766</t>
+  </si>
+  <si>
+    <t>min      -5.675487    -2.871148    -3.380715</t>
+  </si>
+  <si>
+    <t>25%      -0.392670     0.119839     0.078302</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.385852     0.347222</t>
+  </si>
+  <si>
+    <t>75%       0.401674     0.732812     0.701313</t>
+  </si>
+  <si>
+    <t>max       3.731836     3.904071     5.710306</t>
+  </si>
+  <si>
+    <t>mean    -0.001497    0.507181    0.485821</t>
+  </si>
+  <si>
+    <t>std      0.677809    0.485073    0.466017</t>
+  </si>
+  <si>
+    <t>min     -2.864462   -1.297947   -1.433207</t>
+  </si>
+  <si>
+    <t>25%     -0.372154    0.192637    0.169779</t>
+  </si>
+  <si>
+    <t>50%     -0.013854    0.390992    0.390930</t>
+  </si>
+  <si>
+    <t>75%      0.378024    0.723888    0.697026</t>
+  </si>
+  <si>
+    <t>max      2.657313    3.741497    2.997045</t>
+  </si>
+  <si>
+    <t>mean     -0.016420     0.422207     0.454683</t>
+  </si>
+  <si>
+    <t>std       0.814839     0.685434     0.668237</t>
+  </si>
+  <si>
+    <t>min      -5.067568    -4.888067    -3.183987</t>
+  </si>
+  <si>
+    <t>25%      -0.383028     0.097203     0.103695</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.330170     0.337795</t>
+  </si>
+  <si>
+    <t>75%       0.347441     0.661891     0.701312</t>
+  </si>
+  <si>
+    <t>max       3.827247     4.352487     5.088682</t>
+  </si>
+  <si>
+    <t>mean      0.016073     0.463062     0.428808</t>
+  </si>
+  <si>
+    <t>std       0.765552     0.608984     0.612115</t>
+  </si>
+  <si>
+    <t>min      -3.103119    -2.347418    -2.891053</t>
+  </si>
+  <si>
+    <t>25%      -0.424805     0.120052     0.053476</t>
+  </si>
+  <si>
+    <t>50%       0.023685     0.407793     0.351759</t>
+  </si>
+  <si>
+    <t>75%       0.463519     0.754183     0.719978</t>
+  </si>
+  <si>
+    <t>max       3.644775     3.746333     3.822431</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1093,7 +1265,7 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75">
+    <row r="1" spans="1:20" ht="27.75">
       <c r="J1" s="24" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1283,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="13"/>
       <c r="J2" s="19" t="s">
         <v>39</v>
@@ -1132,7 +1304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="J3" s="19" t="s">
@@ -1156,7 +1328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="J4" s="19" t="s">
@@ -1170,7 +1342,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="J5" s="3"/>
@@ -1181,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1193,17 +1365,23 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="O7" s="26">
+        <v>40</v>
+      </c>
+      <c r="P7" s="26">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>20</v>
+      </c>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -1273,11 +1451,11 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E22" si="0">C9*D9</f>
+        <f t="shared" ref="E9:E23" si="0">C9*D9</f>
         <v>30510</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" ref="F9:F22" si="1">B9*D9</f>
+        <f t="shared" ref="F9:F23" si="1">B9*D9</f>
         <v>586.59999999999991</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1290,19 +1468,19 @@
         <v>10</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" ref="J9:J22" si="2">F9/H9</f>
+        <f t="shared" ref="J9:J23" si="2">F9/H9</f>
         <v>325.88888888888886</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" ref="K9:K22" si="3">B9/C9</f>
+        <f t="shared" ref="K9:K23" si="3">B9/C9</f>
         <v>1.9226483120288428E-2</v>
       </c>
       <c r="L9" s="27">
-        <f t="shared" ref="L9:L22" si="4">F9/I9</f>
+        <f t="shared" ref="L9:L23" si="4">F9/I9</f>
         <v>58.659999999999989</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" ref="M9:M22" si="5">H9/L9</f>
+        <f t="shared" ref="M9:M21" si="5">H9/L9</f>
         <v>3.0685305148312313E-2</v>
       </c>
       <c r="O9" s="22">
@@ -1314,12 +1492,15 @@
       <c r="Q9" s="22">
         <v>16</v>
       </c>
-      <c r="R9" s="22">
-        <f t="shared" ref="R9:R22" si="6">SUM(O9:Q9)</f>
+      <c r="R9" s="20">
+        <f t="shared" ref="R9:R23" si="6">SUM(O9:Q9)</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="T9" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1375,12 +1556,15 @@
       <c r="Q10" s="22">
         <v>18</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="T10" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
@@ -1438,12 +1622,15 @@
       <c r="Q11" s="22">
         <v>12</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="T11" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1500,12 +1687,15 @@
       <c r="Q12" s="22">
         <v>19</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="T12" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1560,12 +1750,15 @@
       <c r="Q13" s="22">
         <v>15</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="T13" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="10" t="s">
         <v>49</v>
       </c>
@@ -1623,12 +1816,15 @@
       <c r="Q14" s="22">
         <v>13</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="T14" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -1684,12 +1880,15 @@
       <c r="Q15" s="22">
         <v>20</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="T15" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
@@ -1744,12 +1943,15 @@
       <c r="Q16" s="22">
         <v>11</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="20">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="T16" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1803,138 +2005,147 @@
         <v>32</v>
       </c>
       <c r="Q17" s="22">
-        <v>9</v>
-      </c>
-      <c r="R17" s="22">
+        <v>8</v>
+      </c>
+      <c r="R17" s="20">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>64</v>
+      </c>
+      <c r="T17" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B18" s="10">
-        <v>23.7</v>
+        <v>60.68</v>
       </c>
       <c r="C18" s="10">
-        <v>1448</v>
+        <v>4023</v>
       </c>
       <c r="D18" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>28960</v>
+        <v>40230</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>606.79999999999995</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="12">
-        <v>3.6</v>
+        <f>C18*D18*0.00018</f>
+        <v>7.2414000000000005</v>
       </c>
       <c r="I18" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="2"/>
-        <v>131.66666666666666</v>
+        <v>83.795951059187445</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="3"/>
-        <v>1.6367403314917126E-2</v>
+        <v>1.5083271190653742E-2</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="4"/>
-        <v>23.7</v>
+        <v>60.679999999999993</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="5"/>
-        <v>0.15189873417721519</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>36</v>
+        <v>0.11933750823994729</v>
       </c>
       <c r="O18" s="22">
+        <v>12</v>
+      </c>
+      <c r="P18" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>17</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="T18" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
+        <v>23.7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1448</v>
+      </c>
+      <c r="D19" s="10">
         <v>20</v>
-      </c>
-      <c r="P18" s="22">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>8</v>
-      </c>
-      <c r="R18" s="22">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10">
-        <v>60.68</v>
-      </c>
-      <c r="C19" s="10">
-        <v>4023</v>
-      </c>
-      <c r="D19" s="10">
-        <v>10</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>40230</v>
+        <v>28960</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="1"/>
-        <v>606.79999999999995</v>
+        <v>474</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H19" s="12">
-        <f>C19*D19*0.00018</f>
-        <v>7.2414000000000005</v>
+        <v>3.6</v>
       </c>
       <c r="I19" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" s="27">
         <f t="shared" si="2"/>
-        <v>83.795951059187445</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="K19" s="28">
         <f t="shared" si="3"/>
-        <v>1.5083271190653742E-2</v>
+        <v>1.6367403314917126E-2</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="4"/>
-        <v>60.679999999999993</v>
+        <v>23.7</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="5"/>
-        <v>0.11933750823994729</v>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="O19" s="22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P19" s="22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="22">
-        <v>17</v>
-      </c>
-      <c r="R19" s="22">
+        <v>7</v>
+      </c>
+      <c r="R19" s="20">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="T19" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1989,12 +2200,15 @@
       <c r="Q20" s="22">
         <v>14</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1">
+      <c r="T20" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="8" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -2042,7 +2256,7 @@
       </c>
       <c r="N21"/>
       <c r="O21" s="22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P21" s="22">
         <v>18</v>
@@ -2050,112 +2264,179 @@
       <c r="Q21" s="22">
         <v>10</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="T21" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B22" s="10">
-        <v>12.48</v>
+        <v>31.88</v>
       </c>
       <c r="C22" s="10">
-        <v>1769</v>
+        <v>3814</v>
       </c>
       <c r="D22" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>17690</v>
+        <v>57210</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="1"/>
-        <v>124.80000000000001</v>
+        <v>478.2</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="12">
-        <v>1.44</v>
+        <f>C22*D22*0.00006</f>
+        <v>3.4325999999999999</v>
       </c>
       <c r="I22" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J22" s="27">
         <f t="shared" si="2"/>
-        <v>86.666666666666671</v>
+        <v>139.31130921167627</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="3"/>
-        <v>7.0548332391181462E-3</v>
+        <v>8.3586785527005759E-3</v>
       </c>
       <c r="L22" s="27">
         <f t="shared" si="4"/>
-        <v>12.48</v>
-      </c>
-      <c r="M22" s="14">
-        <f t="shared" si="5"/>
-        <v>0.11538461538461538</v>
-      </c>
+        <v>31.88</v>
+      </c>
+      <c r="M22" s="14"/>
       <c r="O22" s="22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P22" s="22">
         <v>14</v>
       </c>
       <c r="Q22" s="22">
-        <v>7</v>
-      </c>
-      <c r="R22" s="22">
+        <v>9</v>
+      </c>
+      <c r="R22" s="20">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10">
+        <v>12.48</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1769</v>
+      </c>
+      <c r="D23" s="10">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>17690</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="I23" s="10">
+        <v>10</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="2"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="3"/>
+        <v>7.0548332391181462E-3</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="4"/>
+        <v>12.48</v>
+      </c>
+      <c r="M23" s="14">
+        <f>H23/L23</f>
+        <v>0.11538461538461538</v>
+      </c>
+      <c r="O23" s="22">
+        <v>14</v>
+      </c>
+      <c r="P23" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>6</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="T23" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <f>MEDIAN(J9:J22)</f>
         <v>175.57714218707554</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="15">
         <f>MEDIAN(K9:K22)</f>
         <v>1.5914636136513342E-2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <f>MEDIAN(L9:L22)</f>
         <v>49.459999999999994</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <f>MEDIAN(M9:M22)</f>
-        <v>6.3899907904620828E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="1" t="s">
+        <v>5.7542204568023836E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+    <row r="27" spans="1:20">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A9:R22">
+  <sortState ref="A9:R23">
     <sortCondition descending="1" ref="R8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2168,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2484,12 +2765,276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="费用占比" sheetId="1" r:id="rId1"/>
@@ -15,36 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="404">
-  <si>
-    <t>ATR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一手几单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一跳几元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="418">
   <si>
     <t>费用形式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>固定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -53,74 +29,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>固定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万1.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小于1%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>越大保证金效率越高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>排名后3不做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实际一跳费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平今免费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平今20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平今3倍，</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>越大越好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,39 +53,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>费用比值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波幅价格比值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1atr实际几跳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜粕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热卷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万0.72</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +108,6 @@
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -300,62 +184,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>豆二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开仓费用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平仓费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平今免费算一半</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同样的价钱能买多少波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平今贵的算三分之二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格（6-24）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ma20上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -374,18 +210,6 @@
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一手实际价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一ATR几元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力合约</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1521,18 +1345,301 @@
   <si>
     <t>max       3.702946     3.702946     3.600655</t>
   </si>
+  <si>
+    <t>pvc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力合约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（6-24）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一手几单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一ATR几元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平仓费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一跳几元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜粕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万0.72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一跳几点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小变动价位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万0.48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平今免费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一半的平仓算平今</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.54</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元能买多少波动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OI</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一手保证金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波幅价格比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平今20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平今3倍，</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用比值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金利用率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,15 +1759,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1678,13 +1776,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1704,6 +1839,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1746,7 +1886,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1763,55 +1903,60 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="6" builtinId="26"/>
     <cellStyle name="计算" xfId="4" builtinId="22"/>
@@ -2109,1028 +2254,1867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="8.375" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="12.25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="11" width="1.25" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75">
-      <c r="K1" s="20" t="s">
+    <row r="1" spans="1:16" ht="54.75">
+      <c r="L1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="5"/>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="L3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="L5" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="I6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="28">
+        <v>400.9</v>
+      </c>
+      <c r="C10" s="17">
+        <v>23045</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <f>C10*D10*0.08</f>
+        <v>9218</v>
+      </c>
+      <c r="F10" s="35">
+        <f>B10*D10</f>
+        <v>2004.5</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5</v>
+      </c>
+      <c r="K10" s="17">
+        <f>(D10*J10)</f>
+        <v>25</v>
+      </c>
+      <c r="L10" s="20">
+        <f>F10/(H10+I10)</f>
+        <v>371.2037037037037</v>
+      </c>
+      <c r="M10" s="26">
+        <f>B10/C10</f>
+        <v>1.7396398351052288E-2</v>
+      </c>
+      <c r="N10" s="17">
+        <f>F10/K10</f>
+        <v>80.180000000000007</v>
+      </c>
+      <c r="O10" s="24">
+        <f>F10/E10</f>
+        <v>0.21745497938815361</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1915.8</v>
+      </c>
+      <c r="C11" s="17">
+        <v>145060</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <f>C11*D11*0.07</f>
+        <v>10154.200000000001</v>
+      </c>
+      <c r="F11" s="35">
+        <f>B11*D11</f>
+        <v>1915.8</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J11" s="17">
+        <v>10</v>
+      </c>
+      <c r="K11" s="17">
+        <f>(D11*J11)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="20">
+        <f>F11/(H11+I11)</f>
+        <v>354.77777777777777</v>
+      </c>
+      <c r="M11" s="26">
+        <f>B11/C11</f>
+        <v>1.320694884875224E-2</v>
+      </c>
+      <c r="N11" s="17">
+        <f>F11/K11</f>
+        <v>191.57999999999998</v>
+      </c>
+      <c r="O11" s="26">
+        <f>F11/E11</f>
+        <v>0.1886706978393177</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="28">
+        <v>103.7</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6512</v>
+      </c>
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12*0.07</f>
+        <v>4558.4000000000005</v>
+      </c>
+      <c r="F12" s="17">
+        <f>B12*D12</f>
+        <v>1037</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <f>(D12*J12)</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="20">
+        <f>F12/(H12+I12)</f>
+        <v>288.0555555555556</v>
+      </c>
+      <c r="M12" s="26">
+        <f>B12/C12</f>
+        <v>1.5924447174447173E-2</v>
+      </c>
+      <c r="N12" s="17">
+        <f>F12/K12</f>
+        <v>103.7</v>
+      </c>
+      <c r="O12" s="24">
+        <f>F12/E12</f>
+        <v>0.22749210249210247</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="28">
+        <v>62.34</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3380</v>
+      </c>
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17">
+        <f>C13*D13*0.07</f>
+        <v>2366</v>
+      </c>
+      <c r="F13" s="17">
+        <f>B13*D13</f>
+        <v>623.40000000000009</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="I13" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <f>(D13*J13)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="20">
+        <f>F13/(H13+I13)</f>
+        <v>259.75000000000006</v>
+      </c>
+      <c r="M13" s="23">
+        <f>B13/C13</f>
+        <v>1.8443786982248522E-2</v>
+      </c>
+      <c r="N13" s="17">
+        <f>F13/K13</f>
+        <v>62.340000000000011</v>
+      </c>
+      <c r="O13" s="24">
+        <f>F13/E13</f>
+        <v>0.26348267117497892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="25" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="28">
+        <v>290.3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10565</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14*D14*0.09</f>
+        <v>9508.5</v>
+      </c>
+      <c r="F14" s="35">
+        <f>B14*D14</f>
+        <v>2903</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="28">
+        <f>C14*D14*0.000054</f>
+        <v>5.7050999999999998</v>
+      </c>
+      <c r="I14" s="28">
+        <f>C14*D14*0.000054</f>
+        <v>5.7050999999999998</v>
+      </c>
+      <c r="J14" s="17">
+        <v>5</v>
+      </c>
+      <c r="K14" s="17">
+        <f>(D14*J14)</f>
+        <v>50</v>
+      </c>
+      <c r="L14" s="20">
+        <f>F14/(H14+I14)</f>
+        <v>254.42148253317208</v>
+      </c>
+      <c r="M14" s="16">
+        <f>B14/C14</f>
+        <v>2.7477520113582586E-2</v>
+      </c>
+      <c r="N14" s="17">
+        <f>F14/K14</f>
+        <v>58.06</v>
+      </c>
+      <c r="O14" s="24">
+        <f>F14/E14</f>
+        <v>0.30530577903980649</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16" s="25" customFormat="1">
+      <c r="A15" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="28">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="C15" s="17">
+        <v>20370</v>
+      </c>
+      <c r="D15" s="17">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15*0.08</f>
+        <v>8148</v>
+      </c>
+      <c r="F15" s="35">
+        <f>B15*D15</f>
+        <v>1429.5</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="28">
+        <f>C15*D15*0.000048</f>
+        <v>4.8887999999999998</v>
+      </c>
+      <c r="I15" s="28">
+        <f>C15*D15*0.000024</f>
+        <v>2.4443999999999999</v>
+      </c>
+      <c r="J15" s="17">
+        <v>5</v>
+      </c>
+      <c r="K15" s="17">
+        <f>(D15*J15)</f>
+        <v>25</v>
+      </c>
+      <c r="L15" s="20">
+        <f>F15/(H15+I15)</f>
+        <v>194.93536246113567</v>
+      </c>
+      <c r="M15" s="26">
+        <f>B15/C15</f>
+        <v>1.4035346097201766E-2</v>
+      </c>
+      <c r="N15" s="17">
+        <f>F15/K15</f>
+        <v>57.18</v>
+      </c>
+      <c r="O15" s="26">
+        <f>F15/E15</f>
+        <v>0.17544182621502208</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="25" customFormat="1">
+      <c r="A16" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="28">
+        <v>193.3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>14085</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17">
+        <f>C16*D16*0.07</f>
+        <v>4929.7500000000009</v>
+      </c>
+      <c r="F16" s="17">
+        <f>B16*D16</f>
+        <v>966.5</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
+      <c r="K16" s="17">
+        <f>(D16*J16)</f>
+        <v>25</v>
+      </c>
+      <c r="L16" s="20">
+        <f>F16/(H16+I16)</f>
+        <v>178.98148148148147</v>
+      </c>
+      <c r="M16" s="26">
+        <f>B16/C16</f>
+        <v>1.3723819666311679E-2</v>
+      </c>
+      <c r="N16" s="17">
+        <f>F16/K16</f>
+        <v>38.659999999999997</v>
+      </c>
+      <c r="O16" s="26">
+        <f>F16/E16</f>
+        <v>0.19605456666159538</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="25" customFormat="1">
+      <c r="A17" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="28">
+        <v>45.1</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2418</v>
+      </c>
+      <c r="D17" s="17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17*D17*0.06</f>
+        <v>1450.8</v>
+      </c>
+      <c r="F17" s="17">
+        <f>B17*D17</f>
+        <v>451</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <f>(D17*J17)</f>
+        <v>10</v>
+      </c>
+      <c r="L17" s="20">
+        <f>F17/(H17+I17)</f>
+        <v>167.03703703703704</v>
+      </c>
+      <c r="M17" s="23">
+        <f>B17/C17</f>
+        <v>1.8651778329197684E-2</v>
+      </c>
+      <c r="N17" s="17">
+        <f>F17/K17</f>
+        <v>45.1</v>
+      </c>
+      <c r="O17" s="24">
+        <f>F17/E17</f>
+        <v>0.31086297215329473</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="28">
+        <v>54.1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>3051</v>
+      </c>
+      <c r="D18" s="17">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18*D18*0.07</f>
+        <v>2135.7000000000003</v>
+      </c>
+      <c r="F18" s="17">
+        <f>B18*D18</f>
+        <v>541</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H18" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="I18" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
+        <f>(D18*J18)</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="20">
+        <f>F18/(H18+I18)</f>
+        <v>150.27777777777777</v>
+      </c>
+      <c r="M18" s="23">
+        <f>B18/C18</f>
+        <v>1.7731891183218617E-2</v>
+      </c>
+      <c r="N18" s="17">
+        <f>F18/K18</f>
+        <v>54.1</v>
+      </c>
+      <c r="O18" s="24">
+        <f>F18/E18</f>
+        <v>0.25331273118883735</v>
+      </c>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" s="25" customFormat="1">
+      <c r="A19" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="28">
+        <v>106</v>
+      </c>
+      <c r="C19" s="17">
+        <v>6890</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19*D19*0.07</f>
+        <v>2411.5000000000005</v>
+      </c>
+      <c r="F19" s="17">
+        <f>B19*D19</f>
+        <v>530</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H19" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="I19" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>5</v>
+      </c>
+      <c r="K19" s="17">
+        <f>(D19*J19)</f>
+        <v>25</v>
+      </c>
+      <c r="L19" s="20">
+        <f>F19/(H19+I19)</f>
+        <v>147.22222222222223</v>
+      </c>
+      <c r="M19" s="26">
+        <f>B19/C19</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="N19" s="17">
+        <f>F19/K19</f>
+        <v>21.2</v>
+      </c>
+      <c r="O19" s="24">
+        <f>F19/E19</f>
+        <v>0.21978021978021975</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="25" customFormat="1">
+      <c r="A20" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="28">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="C20" s="17">
+        <v>51360</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <f>C20*D20*0.07</f>
+        <v>17976</v>
+      </c>
+      <c r="F20" s="35">
+        <f>B20*D20</f>
+        <v>3131</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" s="28">
+        <f>C20*D20*0.00006</f>
+        <v>15.408000000000001</v>
+      </c>
+      <c r="I20" s="28">
+        <f>C20*D20*0.00003</f>
+        <v>7.7040000000000006</v>
+      </c>
+      <c r="J20" s="17">
+        <v>10</v>
+      </c>
+      <c r="K20" s="17">
+        <f>(D20*J20)</f>
+        <v>50</v>
+      </c>
+      <c r="L20" s="20">
+        <f>F20/(H20+I20)</f>
+        <v>135.47075112495673</v>
+      </c>
+      <c r="M20" s="16">
+        <f>B20/C20</f>
+        <v>1.2192367601246108E-2</v>
+      </c>
+      <c r="N20" s="17">
+        <f>F20/K20</f>
+        <v>62.62</v>
+      </c>
+      <c r="O20" s="26">
+        <f>F20/E20</f>
+        <v>0.17417668001780151</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="27" customFormat="1">
+      <c r="A21" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="28">
+        <v>69.28</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5582</v>
+      </c>
+      <c r="D21" s="17">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17">
+        <f>C21*D21*0.07</f>
+        <v>3907.4000000000005</v>
+      </c>
+      <c r="F21" s="17">
+        <f>B21*D21</f>
+        <v>692.8</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H21" s="28">
+        <v>3</v>
+      </c>
+      <c r="I21" s="28">
+        <v>3</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17">
+        <f>(D21*J21)</f>
+        <v>20</v>
+      </c>
+      <c r="L21" s="20">
+        <f>F21/(H21+I21)</f>
+        <v>115.46666666666665</v>
+      </c>
+      <c r="M21" s="26">
+        <f>B21/C21</f>
+        <v>1.2411322106771767E-2</v>
+      </c>
+      <c r="N21" s="17">
+        <f>F21/K21</f>
+        <v>34.64</v>
+      </c>
+      <c r="O21" s="26">
+        <f>F21/E21</f>
+        <v>0.17730460152531091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="27" customFormat="1">
+      <c r="A22" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="28">
+        <v>52.16</v>
+      </c>
+      <c r="C22" s="17">
+        <v>3630</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="17">
+        <f>C22*D22*0.07</f>
+        <v>2541.0000000000005</v>
+      </c>
+      <c r="F22" s="17">
+        <f>B22*D22</f>
+        <v>521.59999999999991</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <f>(D22*J22)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="20">
+        <f>F22/(H22+I22)</f>
+        <v>108.66666666666666</v>
+      </c>
+      <c r="M22" s="26">
+        <f>B22/C22</f>
+        <v>1.4369146005509641E-2</v>
+      </c>
+      <c r="N22" s="17">
+        <f>F22/K22</f>
+        <v>52.159999999999989</v>
+      </c>
+      <c r="O22" s="26">
+        <f>F22/E22</f>
+        <v>0.20527351436442337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1">
+      <c r="A23" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="28">
+        <v>266.94</v>
+      </c>
+      <c r="C23" s="17">
+        <v>9684</v>
+      </c>
+      <c r="D23" s="17">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17">
+        <f>C23*D23*0.11</f>
+        <v>10652.4</v>
+      </c>
+      <c r="F23" s="35">
+        <f>B23*D23</f>
+        <v>2669.4</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="28">
+        <v>10</v>
+      </c>
+      <c r="I23" s="28">
         <v>15</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="12"/>
-      <c r="K2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="K3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="K4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="K5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="J23" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K23" s="17">
+        <f>(D23*J23)</f>
+        <v>10</v>
+      </c>
+      <c r="L23" s="20">
+        <f>F23/(H23+I23)</f>
+        <v>106.77600000000001</v>
+      </c>
+      <c r="M23" s="26">
+        <f>B23/C23</f>
+        <v>2.7565055762081785E-2</v>
+      </c>
+      <c r="N23" s="17">
+        <f>F23/K23</f>
+        <v>266.94</v>
+      </c>
+      <c r="O23" s="24">
+        <f>F23/E23</f>
+        <v>0.25059141601892532</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="28">
+        <v>55.04</v>
+      </c>
+      <c r="C24" s="17">
+        <v>5157</v>
+      </c>
+      <c r="D24" s="17">
+        <v>10</v>
+      </c>
+      <c r="E24" s="17">
+        <f>C24*D24*0.05</f>
+        <v>2578.5</v>
+      </c>
+      <c r="F24" s="17">
+        <f>B24*D24</f>
+        <v>550.4</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <f>(D24*J24)</f>
+        <v>10</v>
+      </c>
+      <c r="L24" s="20">
+        <f>F24/(H24+I24)</f>
+        <v>101.92592592592591</v>
+      </c>
+      <c r="M24" s="26">
+        <f>B24/C24</f>
+        <v>1.0672871824704284E-2</v>
+      </c>
+      <c r="N24" s="17">
+        <f>F24/K24</f>
+        <v>55.04</v>
+      </c>
+      <c r="O24" s="26">
+        <f>F24/E24</f>
+        <v>0.21345743649408569</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="28">
+        <v>118.44</v>
+      </c>
+      <c r="C25" s="17">
+        <v>9012</v>
+      </c>
+      <c r="D25" s="17">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17">
+        <f>C25*D25*0.07</f>
+        <v>3154.2000000000003</v>
+      </c>
+      <c r="F25" s="17">
+        <f>B25*D25</f>
+        <v>592.20000000000005</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="28">
+        <f>C25*D25*0.000072</f>
+        <v>3.2443200000000001</v>
+      </c>
+      <c r="I25" s="28">
+        <f>C25*D25*0.000072</f>
+        <v>3.2443200000000001</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <f>(D25*J25)</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="17">
+        <f>F25/(H25+I25)</f>
+        <v>91.267199289835773</v>
+      </c>
+      <c r="M25" s="26">
+        <f>B25/C25</f>
+        <v>1.3142476697736351E-2</v>
+      </c>
+      <c r="N25" s="17">
+        <f>F25/K25</f>
+        <v>118.44000000000001</v>
+      </c>
+      <c r="O25" s="26">
+        <f>F25/E25</f>
+        <v>0.1877496671105193</v>
+      </c>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="28">
+        <v>62</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3062</v>
+      </c>
+      <c r="D26" s="17">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17">
+        <f>C26*D26*0.08</f>
+        <v>2449.6</v>
+      </c>
+      <c r="F26" s="17">
+        <f>B26*D26</f>
+        <v>620</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H26" s="28">
+        <f>C26*D26*0.00012</f>
+        <v>3.6743999999999999</v>
+      </c>
+      <c r="I26" s="28">
+        <f>C26*D26*0.00012</f>
+        <v>3.6743999999999999</v>
+      </c>
+      <c r="J26" s="17">
         <v>2</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>62.34</v>
-      </c>
-      <c r="C10">
-        <v>3380</v>
-      </c>
-      <c r="D10">
+      <c r="K26" s="17">
+        <f>(D26*J26)</f>
+        <v>20</v>
+      </c>
+      <c r="L26" s="17">
+        <f>F26/(H26+I26)</f>
+        <v>84.36751578489006</v>
+      </c>
+      <c r="M26" s="23">
+        <f>B26/C26</f>
+        <v>2.0248203788373612E-2</v>
+      </c>
+      <c r="N26" s="17">
+        <f>F26/K26</f>
+        <v>31</v>
+      </c>
+      <c r="O26" s="24">
+        <f>F26/E26</f>
+        <v>0.25310254735467014</v>
+      </c>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="28">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="C27" s="17">
+        <v>3699</v>
+      </c>
+      <c r="D27" s="17">
         <v>10</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E25" si="0">C10*D10</f>
-        <v>33800</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F25" si="1">B10*D10</f>
+      <c r="E27" s="17">
+        <f>C27*D27*0.09</f>
+        <v>3329.1</v>
+      </c>
+      <c r="F27" s="17">
+        <f>B27*D27</f>
+        <v>720.40000000000009</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H27" s="28">
+        <f>C27*D27*0.00012</f>
+        <v>4.4388000000000005</v>
+      </c>
+      <c r="I27" s="28">
+        <f>C27*D27*0.00012</f>
+        <v>4.4388000000000005</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="17">
+        <f>(D27*J27)</f>
+        <v>10</v>
+      </c>
+      <c r="L27" s="17">
+        <f>F27/(H27+I27)</f>
+        <v>81.14805803370281</v>
+      </c>
+      <c r="M27" s="23">
+        <f>B27/C27</f>
+        <v>1.9475533928088675E-2</v>
+      </c>
+      <c r="N27" s="17">
+        <f>F27/K27</f>
+        <v>72.040000000000006</v>
+      </c>
+      <c r="O27" s="24">
+        <f>F27/E27</f>
+        <v>0.21639482142320751</v>
+      </c>
+      <c r="P27" s="27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="28">
+        <v>70.44</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3828</v>
+      </c>
+      <c r="D28" s="17">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17">
+        <f>C28*D28*0.08</f>
+        <v>3062.4</v>
+      </c>
+      <c r="F28" s="17">
+        <f>B28*D28</f>
+        <v>704.4</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="28">
+        <f>C28*D28*0.00012</f>
+        <v>4.5936000000000003</v>
+      </c>
+      <c r="I28" s="28">
+        <f>C28*D28*0.00012</f>
+        <v>4.5936000000000003</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17">
+        <f>(D28*J28)</f>
+        <v>10</v>
+      </c>
+      <c r="L28" s="17">
+        <f>F28/(H28+I28)</f>
+        <v>76.671891327063733</v>
+      </c>
+      <c r="M28" s="23">
+        <f>B28/C28</f>
+        <v>1.8401253918495297E-2</v>
+      </c>
+      <c r="N28" s="17">
+        <f>F28/K28</f>
+        <v>70.44</v>
+      </c>
+      <c r="O28" s="24">
+        <f>F28/E28</f>
+        <v>0.23001567398119122</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="28">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3752</v>
+      </c>
+      <c r="D29" s="17">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17">
+        <f>C29*D29*0.06</f>
+        <v>3376.7999999999997</v>
+      </c>
+      <c r="F29" s="17">
+        <f>B29*D29</f>
+        <v>512.4</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29" s="28">
+        <f>C29*D29*0.00006</f>
+        <v>3.3768000000000002</v>
+      </c>
+      <c r="I29" s="28">
+        <f>C29*D29*0.00006</f>
+        <v>3.3768000000000002</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="17">
+        <f>(D29*J29)</f>
+        <v>15</v>
+      </c>
+      <c r="L29" s="17">
+        <f>F29/(H29+I29)</f>
+        <v>75.870646766169145</v>
+      </c>
+      <c r="M29" s="16">
+        <f>B29/C29</f>
+        <v>9.1044776119402968E-3</v>
+      </c>
+      <c r="N29" s="17">
+        <f>F29/K29</f>
+        <v>34.159999999999997</v>
+      </c>
+      <c r="O29" s="34">
+        <f>F29/E29</f>
+        <v>0.15174129353233831</v>
+      </c>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="28">
+        <v>45.02</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2702</v>
+      </c>
+      <c r="D30" s="17">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17">
+        <f>C30*D30*0.07</f>
+        <v>1891.4</v>
+      </c>
+      <c r="F30" s="17">
+        <f>B30*D30</f>
+        <v>450.20000000000005</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H30" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="I30" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <f>(D30*J30)</f>
+        <v>10</v>
+      </c>
+      <c r="L30" s="17">
+        <f>F30/(H30+I30)</f>
+        <v>62.527777777777793</v>
+      </c>
+      <c r="M30" s="23">
+        <f>B30/C30</f>
+        <v>1.6661732050333087E-2</v>
+      </c>
+      <c r="N30" s="17">
+        <f>F30/K30</f>
+        <v>45.02</v>
+      </c>
+      <c r="O30" s="24">
+        <f>F30/E30</f>
+        <v>0.23802474357618697</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="28">
+        <v>61.2</v>
+      </c>
+      <c r="C31" s="17">
+        <v>5618</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="17">
+        <f>C31*D31*0.06</f>
+        <v>1685.3999999999999</v>
+      </c>
+      <c r="F31" s="17">
+        <f>B31*D31</f>
+        <v>306</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H31" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I31" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="J31" s="17">
+        <v>2</v>
+      </c>
+      <c r="K31" s="17">
+        <f>(D31*J31)</f>
+        <v>10</v>
+      </c>
+      <c r="L31" s="17">
+        <f>F31/(H31+I31)</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M31" s="26">
+        <f>B31/C31</f>
+        <v>1.0893556425774298E-2</v>
+      </c>
+      <c r="N31" s="17">
+        <f>F31/K31</f>
+        <v>30.6</v>
+      </c>
+      <c r="O31" s="26">
+        <f>F31/E31</f>
+        <v>0.18155927376290495</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="28">
+        <v>11.56</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1776</v>
+      </c>
+      <c r="D32" s="17">
+        <v>10</v>
+      </c>
+      <c r="E32" s="17">
+        <f>C32*D32*0.07</f>
+        <v>1243.2</v>
+      </c>
+      <c r="F32" s="17">
+        <f>B32*D32</f>
+        <v>115.60000000000001</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1.44</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17">
+        <f>(D32*J32)</f>
+        <v>10</v>
+      </c>
+      <c r="L32" s="17">
+        <f>F32/(H32+I32)</f>
+        <v>53.518518518518519</v>
+      </c>
+      <c r="M32" s="16">
+        <f>B32/C32</f>
+        <v>6.5090090090090093E-3</v>
+      </c>
+      <c r="N32" s="35">
+        <f>F32/K32</f>
+        <v>11.56</v>
+      </c>
+      <c r="O32" s="34">
+        <f>F32/E32</f>
+        <v>9.298584298584299E-2</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="28">
+        <v>68.12</v>
+      </c>
+      <c r="C33" s="17">
+        <v>4220</v>
+      </c>
+      <c r="D33" s="17">
+        <v>10</v>
+      </c>
+      <c r="E33" s="17">
+        <f>C33*D33*0.08</f>
+        <v>3376</v>
+      </c>
+      <c r="F33" s="17">
+        <f>B33*D33</f>
+        <v>681.2</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H33" s="28">
+        <f>C33*D33*0.00018</f>
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="I33" s="28">
+        <f>C33*D33*0.00018</f>
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17">
+        <f>(D33*J33)</f>
+        <v>10</v>
+      </c>
+      <c r="L33" s="17">
+        <f>F33/(H33+I33)</f>
+        <v>44.839389152185362</v>
+      </c>
+      <c r="M33" s="23">
+        <f>B33/C33</f>
+        <v>1.614218009478673E-2</v>
+      </c>
+      <c r="N33" s="17">
+        <f>F33/K33</f>
+        <v>68.12</v>
+      </c>
+      <c r="O33" s="26">
+        <f>F33/E33</f>
+        <v>0.20177725118483414</v>
+      </c>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" s="28">
+        <v>21.26</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1438</v>
+      </c>
+      <c r="D34" s="17">
+        <v>20</v>
+      </c>
+      <c r="E34" s="17">
+        <f>C34*D34*0.07</f>
+        <v>2013.2000000000003</v>
+      </c>
+      <c r="F34" s="17">
+        <f>B34*D34</f>
+        <v>425.20000000000005</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="I34" s="28">
+        <v>13.8</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1</v>
+      </c>
+      <c r="K34" s="17">
+        <f>(D34*J34)</f>
+        <v>20</v>
+      </c>
+      <c r="L34" s="17">
+        <f>F34/(H34+I34)</f>
+        <v>24.436781609195403</v>
+      </c>
+      <c r="M34" s="26">
+        <f>B34/C34</f>
+        <v>1.4784422809457581E-2</v>
+      </c>
+      <c r="N34" s="17">
+        <f>F34/K34</f>
+        <v>21.26</v>
+      </c>
+      <c r="O34" s="26">
+        <f>F34/E34</f>
+        <v>0.21120604013510827</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="27"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17">
+        <f>MEDIAN(F10:F34)</f>
         <v>623.40000000000009</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" ref="K10:K25" si="2">F10/(H10+I10)</f>
-        <v>259.75000000000006</v>
-      </c>
-      <c r="L10" s="26">
-        <f t="shared" ref="L10:L25" si="3">B10/C10</f>
-        <v>1.8443786982248522E-2</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" ref="M10:M25" si="4">F10/J10</f>
-        <v>62.340000000000011</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" ref="N10:N19" si="5">H10/M10</f>
-        <v>1.9249278152069293E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>45.1</v>
-      </c>
-      <c r="C11">
-        <v>2418</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>24180</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>451</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="2"/>
-        <v>167.03703703703704</v>
-      </c>
-      <c r="L11" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8651778329197684E-2</v>
-      </c>
-      <c r="M11" s="27">
-        <f t="shared" si="4"/>
-        <v>45.1</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="5"/>
-        <v>3.9911308203991129E-2</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>54.1</v>
-      </c>
-      <c r="C12">
-        <v>3051</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>30510</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>541</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="2"/>
-        <v>150.27777777777777</v>
-      </c>
-      <c r="L12" s="26">
-        <f t="shared" si="3"/>
-        <v>1.7731891183218617E-2</v>
-      </c>
-      <c r="M12" s="25">
-        <f t="shared" si="4"/>
-        <v>54.1</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="5"/>
-        <v>3.3271719038817003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>69.28</v>
-      </c>
-      <c r="C13">
-        <v>5500</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>55000</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>692.8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="2"/>
-        <v>115.46666666666665</v>
-      </c>
-      <c r="L13" s="28">
-        <f t="shared" si="3"/>
-        <v>1.2596363636363636E-2</v>
-      </c>
-      <c r="M13" s="27">
-        <f t="shared" si="4"/>
-        <v>34.64</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="5"/>
-        <v>8.6605080831408776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>52.16</v>
-      </c>
-      <c r="C14">
-        <v>3630</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>36300</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>521.59999999999991</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" si="2"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17">
+        <f>MEDIAN(L10:L34)</f>
         <v>108.66666666666666</v>
       </c>
-      <c r="L14" s="28">
-        <f t="shared" si="3"/>
-        <v>1.4369146005509641E-2</v>
-      </c>
-      <c r="M14" s="27">
-        <f t="shared" si="4"/>
-        <v>52.159999999999989</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="5"/>
-        <v>4.6012269938650312E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="M36" s="6">
+        <f>MEDIAN(M10:M34)</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="N36" s="17">
+        <f>MEDIAN(N10:N34)</f>
         <v>55.04</v>
       </c>
-      <c r="C15" s="9">
-        <v>5157</v>
-      </c>
-      <c r="D15" s="9">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>51570</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>550.4</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="J15" s="9">
-        <v>10</v>
-      </c>
-      <c r="K15" s="29">
-        <f t="shared" si="2"/>
-        <v>101.92592592592591</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" si="3"/>
-        <v>1.0672871824704284E-2</v>
-      </c>
-      <c r="M15" s="25">
-        <f t="shared" si="4"/>
-        <v>55.04</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="5"/>
-        <v>6.5406976744186052E-2</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>118.44</v>
-      </c>
-      <c r="C16">
-        <v>9012</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>45060</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>592.20000000000005</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="4">
-        <f>C16*D16*0.000072</f>
-        <v>3.2443200000000001</v>
-      </c>
-      <c r="I16" s="4">
-        <f>C16*D16*0.000072</f>
-        <v>3.2443200000000001</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" si="2"/>
-        <v>91.267199289835773</v>
-      </c>
-      <c r="L16" s="28">
-        <f t="shared" si="3"/>
-        <v>1.3142476697736351E-2</v>
-      </c>
-      <c r="M16" s="25">
-        <f t="shared" si="4"/>
-        <v>118.44000000000001</v>
-      </c>
-      <c r="N16" s="17">
-        <f t="shared" si="5"/>
-        <v>2.7392097264437688E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>62</v>
-      </c>
-      <c r="C17">
-        <v>3062</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>30620</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>620</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4">
-        <f>C17*D17*0.00012</f>
-        <v>3.6743999999999999</v>
-      </c>
-      <c r="I17" s="4">
-        <f>C17*D17*0.00012</f>
-        <v>3.6743999999999999</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17" s="25">
-        <f t="shared" si="2"/>
-        <v>84.36751578489006</v>
-      </c>
-      <c r="L17" s="26">
-        <f t="shared" si="3"/>
-        <v>2.0248203788373612E-2</v>
-      </c>
-      <c r="M17" s="27">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="5"/>
-        <v>0.11852903225806451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>72.040000000000006</v>
-      </c>
-      <c r="C18">
-        <v>3699</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>36990</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>720.40000000000009</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4">
-        <f>C18*D18*0.00012</f>
-        <v>4.4388000000000005</v>
-      </c>
-      <c r="I18" s="4">
-        <f>C18*D18*0.00012</f>
-        <v>4.4388000000000005</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18" s="29">
-        <f t="shared" si="2"/>
-        <v>81.14805803370281</v>
-      </c>
-      <c r="L18" s="26">
-        <f t="shared" si="3"/>
-        <v>1.9475533928088675E-2</v>
-      </c>
-      <c r="M18" s="25">
-        <f t="shared" si="4"/>
-        <v>72.040000000000006</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="5"/>
-        <v>6.1615769017212663E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>70.44</v>
-      </c>
-      <c r="C19">
-        <v>3828</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>38280</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>704.4</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4">
-        <f>C19*D19*0.00012</f>
-        <v>4.5936000000000003</v>
-      </c>
-      <c r="I19" s="4">
-        <f>C19*D19*0.00012</f>
-        <v>4.5936000000000003</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" si="2"/>
-        <v>76.671891327063733</v>
-      </c>
-      <c r="L19" s="26">
-        <f t="shared" si="3"/>
-        <v>1.8401253918495297E-2</v>
-      </c>
-      <c r="M19" s="25">
-        <f t="shared" si="4"/>
-        <v>70.44</v>
-      </c>
-      <c r="N19" s="13">
-        <f t="shared" si="5"/>
-        <v>6.5212947189097106E-2</v>
-      </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9">
-        <v>34.159999999999997</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3752</v>
-      </c>
-      <c r="D20" s="9">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>56280</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>512.4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="11">
-        <f>C20*D20*0.000072</f>
-        <v>4.0521599999999998</v>
-      </c>
-      <c r="I20" s="4">
-        <f>C20*D20*0.000072</f>
-        <v>4.0521599999999998</v>
-      </c>
-      <c r="J20" s="9">
-        <v>15</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="2"/>
-        <v>63.22553897180763</v>
-      </c>
-      <c r="L20" s="30">
-        <f t="shared" si="3"/>
-        <v>9.1044776119402968E-3</v>
-      </c>
-      <c r="M20" s="31">
-        <f t="shared" si="4"/>
-        <v>34.159999999999997</v>
-      </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>45.02</v>
-      </c>
-      <c r="C21">
-        <v>2702</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>27020</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>450.20000000000005</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="I21" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21" s="25">
-        <f t="shared" si="2"/>
-        <v>62.527777777777793</v>
-      </c>
-      <c r="L21" s="26">
-        <f t="shared" si="3"/>
-        <v>1.6661732050333087E-2</v>
-      </c>
-      <c r="M21" s="27">
-        <f t="shared" si="4"/>
-        <v>45.02</v>
-      </c>
-      <c r="N21" s="17">
-        <f>H21/M21</f>
-        <v>5.3309640159928916E-2</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="9">
-        <v>61.2</v>
-      </c>
-      <c r="C22" s="9">
-        <v>5618</v>
-      </c>
-      <c r="D22" s="9">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>28090</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>306</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="J22" s="9">
-        <v>10</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="2"/>
-        <v>56.666666666666664</v>
-      </c>
-      <c r="L22" s="30">
-        <f t="shared" si="3"/>
-        <v>1.0893556425774298E-2</v>
-      </c>
-      <c r="M22" s="31">
-        <f t="shared" si="4"/>
-        <v>30.6</v>
-      </c>
-      <c r="N22" s="13">
-        <f>H22/M22</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="7" customFormat="1">
-      <c r="A23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="9">
-        <v>11.56</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1776</v>
-      </c>
-      <c r="D23" s="9">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>17760</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="1"/>
-        <v>115.60000000000001</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1.44</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0.72</v>
-      </c>
-      <c r="J23" s="9">
-        <v>10</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="2"/>
-        <v>53.518518518518519</v>
-      </c>
-      <c r="L23" s="30">
-        <f t="shared" si="3"/>
-        <v>6.5090090090090093E-3</v>
-      </c>
-      <c r="M23" s="31">
-        <f t="shared" si="4"/>
-        <v>11.56</v>
-      </c>
-      <c r="N23" s="13">
-        <f>H23/M23</f>
-        <v>0.1245674740484429</v>
-      </c>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9">
-        <v>68.12</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4220</v>
-      </c>
-      <c r="D24" s="9">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>42200</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="1"/>
-        <v>681.2</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="11">
-        <f>C24*D24*0.00018</f>
-        <v>7.5960000000000001</v>
-      </c>
-      <c r="I24" s="11">
-        <f>C24*D24*0.00018</f>
-        <v>7.5960000000000001</v>
-      </c>
-      <c r="J24" s="9">
-        <v>10</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="2"/>
-        <v>44.839389152185362</v>
-      </c>
-      <c r="L24" s="26">
-        <f t="shared" si="3"/>
-        <v>1.614218009478673E-2</v>
-      </c>
-      <c r="M24" s="25">
-        <f t="shared" si="4"/>
-        <v>68.12</v>
-      </c>
-      <c r="N24" s="16">
-        <f>H24/M24</f>
-        <v>0.11150910158543746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9">
-        <v>21.26</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1438</v>
-      </c>
-      <c r="D25" s="9">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>28760</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="1"/>
-        <v>425.20000000000005</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="I25" s="11">
-        <v>16</v>
-      </c>
-      <c r="J25" s="9">
-        <v>20</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="2"/>
-        <v>21.69387755102041</v>
-      </c>
-      <c r="L25" s="28">
-        <f t="shared" si="3"/>
-        <v>1.4784422809457581E-2</v>
-      </c>
-      <c r="M25" s="27">
-        <f t="shared" si="4"/>
-        <v>21.26</v>
-      </c>
-      <c r="N25" s="16">
-        <f>H25/M25</f>
-        <v>0.16933207902163686</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="8">
-        <f>MEDIAN(K10:K24)</f>
-        <v>84.36751578489006</v>
-      </c>
-      <c r="L27" s="14">
-        <f>MEDIAN(L10:L24)</f>
-        <v>1.614218009478673E-2</v>
-      </c>
-      <c r="M27" s="8">
-        <f>MEDIAN(M10:M24)</f>
-        <v>52.159999999999989</v>
-      </c>
-      <c r="N27" s="13">
-        <f>MEDIAN(N10:N24)</f>
-        <v>6.3414358103154878E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="O36" s="26">
+        <f>MEDIAN(O10:O34)</f>
+        <v>0.21345743649408569</v>
+      </c>
+      <c r="P36" s="27"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="A10:O25">
-    <sortCondition descending="1" ref="K9"/>
+  <sortState ref="A10:Q34">
+    <sortCondition descending="1" ref="L9"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3142,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51:O58"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3155,266 +4139,269 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O4" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O5" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="O6" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="O7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O8" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y8" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="1:29">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="O9" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="W9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y9" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="O10" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="1:29">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="O11" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I13" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="N13" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O13" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="B15" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="33"/>
+        <v>191</v>
+      </c>
+      <c r="K17" s="10"/>
       <c r="O17" t="s">
-        <v>305</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="1:25">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K18" s="33"/>
+        <v>192</v>
+      </c>
+      <c r="K18" s="10"/>
       <c r="O18" t="s">
-        <v>306</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:25">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
-      </c>
-      <c r="K19" s="33"/>
+        <v>193</v>
+      </c>
+      <c r="K19" s="10"/>
       <c r="O19" t="s">
-        <v>307</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:25">
       <c r="B20" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3423,1264 +4410,1279 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="W24" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="B25" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="W25" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="B26" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="O26" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="W26" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="L27" s="22"/>
       <c r="O27" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="W27" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y27" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="Y27" s="11"/>
     </row>
     <row r="28" spans="1:25">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="L28" s="22"/>
       <c r="O28" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="W28" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y28" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="Y28" s="11"/>
     </row>
     <row r="29" spans="1:25">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" t="s">
-        <v>219</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="L29" s="22"/>
       <c r="O29" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="W29" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y29" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="1:25">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="O30" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="W30" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O32" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O33" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="O34" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" s="33"/>
+        <v>202</v>
+      </c>
+      <c r="K36" s="10"/>
       <c r="O36" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="B37" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K37" s="33"/>
+        <v>203</v>
+      </c>
+      <c r="K37" s="10"/>
       <c r="O37" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="B38" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="33"/>
+        <v>204</v>
+      </c>
+      <c r="K38" s="10"/>
       <c r="O38" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="B39" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="O39" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O42" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="W42" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="B43" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O43" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="W43" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="B44" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="O44" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="W44" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="B45" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="W45" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="B46" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="L46" s="22"/>
       <c r="O46" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="W46" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y46" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="Y46" s="11"/>
     </row>
     <row r="47" spans="1:25">
       <c r="B47" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="L47" s="22"/>
       <c r="O47" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="W47" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y47" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="Y47" s="11"/>
     </row>
     <row r="48" spans="1:25">
       <c r="B48" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="L48" s="22"/>
       <c r="O48" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="W48" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y48" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="Y48" s="11"/>
     </row>
     <row r="49" spans="1:30">
       <c r="B49" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="O49" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="W49" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="N51" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O51" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:30">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O52" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:30">
       <c r="B53" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="I53" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:30">
       <c r="B54" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I54" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="O54" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:30">
       <c r="B55" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="I55" t="s">
-        <v>376</v>
-      </c>
-      <c r="K55" s="33"/>
+        <v>337</v>
+      </c>
+      <c r="K55" s="10"/>
       <c r="O55" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:30">
       <c r="B56" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I56" t="s">
-        <v>377</v>
-      </c>
-      <c r="K56" s="33"/>
+        <v>338</v>
+      </c>
+      <c r="K56" s="10"/>
       <c r="O56" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:30">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>378</v>
-      </c>
-      <c r="K57" s="33"/>
+        <v>339</v>
+      </c>
+      <c r="K57" s="10"/>
       <c r="O57" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:30">
       <c r="B58" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="O58" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" t="s">
+        <v>215</v>
+      </c>
+      <c r="N61" t="s">
+        <v>206</v>
+      </c>
+      <c r="O61" t="s">
+        <v>285</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" t="s">
-        <v>235</v>
-      </c>
-      <c r="I61" t="s">
-        <v>254</v>
-      </c>
-      <c r="N61" t="s">
-        <v>245</v>
-      </c>
-      <c r="O61" t="s">
-        <v>324</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W61" t="s">
-        <v>91</v>
-      </c>
       <c r="AD61" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:30">
       <c r="B62" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O62" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="W62" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="AD62" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:30">
       <c r="B63" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="O63" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="AD63" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:30">
       <c r="B64" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="O64" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="W64" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="AD64" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:30">
       <c r="B65" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I65" t="s">
-        <v>258</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L65" s="22"/>
       <c r="O65" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="W65" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y65" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="Y65" s="11"/>
       <c r="AD65" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:30">
       <c r="B66" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I66" t="s">
-        <v>259</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="L66" s="22"/>
       <c r="O66" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="W66" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y66" s="34"/>
+        <v>57</v>
+      </c>
+      <c r="Y66" s="11"/>
       <c r="AD66" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:30">
       <c r="B67" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I67" t="s">
-        <v>260</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="L67" s="22"/>
       <c r="O67" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="W67" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y67" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="Y67" s="11"/>
       <c r="AD67" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:30">
       <c r="B68" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="O68" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="W68" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AD68" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I70" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="N70" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O70" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="V70" s="1"/>
       <c r="W70" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:30">
       <c r="B71" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I71" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O71" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:30">
       <c r="B72" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="I72" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="O72" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:30">
       <c r="B73" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I73" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="O73" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:30">
       <c r="B74" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>250</v>
-      </c>
-      <c r="K74" s="33"/>
+        <v>211</v>
+      </c>
+      <c r="K74" s="10"/>
       <c r="O74" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:30">
       <c r="B75" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>251</v>
-      </c>
-      <c r="K75" s="33"/>
+        <v>212</v>
+      </c>
+      <c r="K75" s="10"/>
       <c r="O75" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:30">
       <c r="B76" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="I76" t="s">
-        <v>252</v>
-      </c>
-      <c r="K76" s="33"/>
+        <v>213</v>
+      </c>
+      <c r="K76" s="10"/>
       <c r="O76" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:30">
       <c r="B77" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="I77" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="O77" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I80" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="N80" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O80" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="W80" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="B81" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I81" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O81" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="W81" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="B82" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="I82" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O82" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="W82" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="B83" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="I83" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="O83" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="W83" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="B84" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="O84" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="W84" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y84" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="Y84" s="11"/>
     </row>
     <row r="85" spans="1:25">
       <c r="B85" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="I85" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="O85" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="W85" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y85" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="Y85" s="11"/>
     </row>
     <row r="86" spans="1:25">
       <c r="B86" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="I86" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="O86" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="W86" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y86" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="Y86" s="11"/>
     </row>
     <row r="87" spans="1:25">
       <c r="B87" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I87" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="O87" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="W87" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="H89" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="N89" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O89" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="B90" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I90" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O90" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="B91" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I91" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="O91" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="B92" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I92" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="O92" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="B93" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="I93" t="s">
-        <v>282</v>
-      </c>
-      <c r="K93" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="K93" s="10"/>
       <c r="O93" t="s">
-        <v>344</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="R93" s="22"/>
     </row>
     <row r="94" spans="1:25">
       <c r="B94" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="I94" t="s">
-        <v>283</v>
-      </c>
-      <c r="K94" s="33"/>
+        <v>244</v>
+      </c>
+      <c r="K94" s="10"/>
       <c r="O94" t="s">
-        <v>345</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="R94" s="22"/>
     </row>
     <row r="95" spans="1:25">
       <c r="B95" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="I95" t="s">
-        <v>284</v>
-      </c>
-      <c r="K95" s="33"/>
+        <v>245</v>
+      </c>
+      <c r="K95" s="10"/>
       <c r="O95" t="s">
-        <v>346</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="R95" s="22"/>
     </row>
     <row r="96" spans="1:25">
       <c r="B96" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="I96" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O96" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>157</v>
+      </c>
+      <c r="H99" t="s">
+        <v>196</v>
+      </c>
+      <c r="I99" t="s">
+        <v>223</v>
+      </c>
+      <c r="N99" t="s">
+        <v>206</v>
+      </c>
+      <c r="O99" t="s">
+        <v>317</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W99" t="s">
         <v>52</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
-      </c>
-      <c r="H99" t="s">
-        <v>235</v>
-      </c>
-      <c r="I99" t="s">
-        <v>262</v>
-      </c>
-      <c r="N99" t="s">
-        <v>245</v>
-      </c>
-      <c r="O99" t="s">
-        <v>356</v>
-      </c>
-      <c r="V99" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W99" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="B100" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I100" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O100" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="W100" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="B101" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="I101" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="O101" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="W101" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="B102" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="I102" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="O102" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="W102" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="B103" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="I103" t="s">
-        <v>266</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="L103" s="22"/>
       <c r="O103" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="W103" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y103" s="34"/>
+        <v>63</v>
+      </c>
+      <c r="Y103" s="11"/>
     </row>
     <row r="104" spans="1:25">
       <c r="B104" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="I104" t="s">
-        <v>267</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="L104" s="22"/>
       <c r="O104" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="W104" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y104" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="Y104" s="11"/>
     </row>
     <row r="105" spans="1:25">
       <c r="B105" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>268</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L105" s="22"/>
       <c r="O105" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="W105" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y105" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="Y105" s="11"/>
     </row>
     <row r="106" spans="1:25">
       <c r="B106" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I106" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="O106" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="W106" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="I108" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="N108" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O108" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="B109" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I109" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O109" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="B110" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="O110" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="B111" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="I111" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="O111" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="B112" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="I112" t="s">
-        <v>274</v>
-      </c>
-      <c r="K112" s="33"/>
+        <v>235</v>
+      </c>
+      <c r="K112" s="10"/>
       <c r="O112" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="2:15">
       <c r="B113" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="I113" t="s">
-        <v>275</v>
-      </c>
-      <c r="K113" s="33"/>
+        <v>236</v>
+      </c>
+      <c r="K113" s="10"/>
       <c r="O113" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="2:15">
       <c r="B114" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
-        <v>276</v>
-      </c>
-      <c r="K114" s="33"/>
+        <v>237</v>
+      </c>
+      <c r="K114" s="10"/>
       <c r="O114" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="2:15">
       <c r="B115" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="I115" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="O115" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -1600,19 +1600,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平今3倍，</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>万1.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1626,6 +1613,10 @@
   </si>
   <si>
     <t>保证金利用率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平今3倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1635,9 +1626,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1910,14 +1901,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1935,7 +1926,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1945,7 +1936,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyAlignment="1"/>
@@ -1953,6 +1944,7 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2257,7 +2249,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2268,14 +2260,14 @@
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="11" width="1.25" customWidth="1"/>
+    <col min="7" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="54.75">
+    <row r="1" spans="1:16" ht="27.75">
       <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2394,7 @@
         <v>372</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M9" s="29" t="s">
         <v>410</v>
@@ -2411,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>1</v>
@@ -3152,34 +3144,34 @@
       </c>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1">
-      <c r="A23" s="19" t="s">
-        <v>395</v>
+      <c r="A23" s="21" t="s">
+        <v>398</v>
       </c>
       <c r="B23" s="28">
-        <v>266.94</v>
+        <v>55.04</v>
       </c>
       <c r="C23" s="17">
-        <v>9684</v>
+        <v>5157</v>
       </c>
       <c r="D23" s="17">
         <v>10</v>
       </c>
       <c r="E23" s="17">
-        <f>C23*D23*0.11</f>
-        <v>10652.4</v>
-      </c>
-      <c r="F23" s="35">
+        <f>C23*D23*0.05</f>
+        <v>2578.5</v>
+      </c>
+      <c r="F23" s="17">
         <f>B23*D23</f>
-        <v>2669.4</v>
+        <v>550.4</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>373</v>
       </c>
       <c r="H23" s="28">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="I23" s="28">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="J23" s="17">
         <v>1</v>
@@ -3190,137 +3182,137 @@
       </c>
       <c r="L23" s="20">
         <f>F23/(H23+I23)</f>
-        <v>106.77600000000001</v>
+        <v>101.92592592592591</v>
       </c>
       <c r="M23" s="26">
         <f>B23/C23</f>
-        <v>2.7565055762081785E-2</v>
+        <v>1.0672871824704284E-2</v>
       </c>
       <c r="N23" s="17">
         <f>F23/K23</f>
-        <v>266.94</v>
-      </c>
-      <c r="O23" s="24">
+        <v>55.04</v>
+      </c>
+      <c r="O23" s="26">
         <f>F23/E23</f>
-        <v>0.25059141601892532</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>412</v>
+        <v>0.21345743649408569</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="21" t="s">
-        <v>398</v>
+      <c r="A24" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="B24" s="28">
-        <v>55.04</v>
+        <v>118.44</v>
       </c>
       <c r="C24" s="17">
-        <v>5157</v>
+        <v>9012</v>
       </c>
       <c r="D24" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="17">
-        <f>C24*D24*0.05</f>
-        <v>2578.5</v>
+        <f>C24*D24*0.07</f>
+        <v>3154.2000000000003</v>
       </c>
       <c r="F24" s="17">
         <f>B24*D24</f>
-        <v>550.4</v>
+        <v>592.20000000000005</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H24" s="28">
-        <v>3.6</v>
+        <f>C24*D24*0.000072</f>
+        <v>3.2443200000000001</v>
       </c>
       <c r="I24" s="28">
-        <v>1.8</v>
+        <f>C24*D24*0.000072</f>
+        <v>3.2443200000000001</v>
       </c>
       <c r="J24" s="17">
         <v>1</v>
       </c>
       <c r="K24" s="17">
         <f>(D24*J24)</f>
-        <v>10</v>
-      </c>
-      <c r="L24" s="20">
+        <v>5</v>
+      </c>
+      <c r="L24" s="17">
         <f>F24/(H24+I24)</f>
-        <v>101.92592592592591</v>
+        <v>91.267199289835773</v>
       </c>
       <c r="M24" s="26">
         <f>B24/C24</f>
-        <v>1.0672871824704284E-2</v>
+        <v>1.3142476697736351E-2</v>
       </c>
       <c r="N24" s="17">
         <f>F24/K24</f>
-        <v>55.04</v>
+        <v>118.44000000000001</v>
       </c>
       <c r="O24" s="26">
         <f>F24/E24</f>
-        <v>0.21345743649408569</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>397</v>
-      </c>
+        <v>0.1877496671105193</v>
+      </c>
+      <c r="P24" s="27"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="17" t="s">
-        <v>375</v>
+      <c r="A25" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="B25" s="28">
-        <v>118.44</v>
+        <v>266.94</v>
       </c>
       <c r="C25" s="17">
-        <v>9012</v>
+        <v>9684</v>
       </c>
       <c r="D25" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" s="17">
-        <f>C25*D25*0.07</f>
-        <v>3154.2000000000003</v>
-      </c>
-      <c r="F25" s="17">
+        <f>C25*D25*0.11</f>
+        <v>10652.4</v>
+      </c>
+      <c r="F25" s="35">
         <f>B25*D25</f>
-        <v>592.20000000000005</v>
+        <v>2669.4</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H25" s="28">
-        <f>C25*D25*0.000072</f>
-        <v>3.2443200000000001</v>
+        <v>12</v>
       </c>
       <c r="I25" s="28">
-        <f>C25*D25*0.000072</f>
-        <v>3.2443200000000001</v>
+        <v>18</v>
       </c>
       <c r="J25" s="17">
         <v>1</v>
       </c>
       <c r="K25" s="17">
         <f>(D25*J25)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L25" s="17">
         <f>F25/(H25+I25)</f>
-        <v>91.267199289835773</v>
+        <v>88.98</v>
       </c>
       <c r="M25" s="26">
         <f>B25/C25</f>
-        <v>1.3142476697736351E-2</v>
+        <v>2.7565055762081785E-2</v>
       </c>
       <c r="N25" s="17">
         <f>F25/K25</f>
-        <v>118.44000000000001</v>
-      </c>
-      <c r="O25" s="26">
+        <v>266.94</v>
+      </c>
+      <c r="O25" s="24">
         <f>F25/E25</f>
-        <v>0.1877496671105193</v>
-      </c>
-      <c r="P25" s="27"/>
+        <v>0.25059141601892532</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="17" t="s">
@@ -3344,7 +3336,7 @@
         <v>620</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H26" s="28">
         <f>C26*D26*0.00012</f>
@@ -3401,7 +3393,7 @@
         <v>720.40000000000009</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H27" s="28">
         <f>C27*D27*0.00012</f>
@@ -3458,7 +3450,7 @@
         <v>704.4</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H28" s="28">
         <f>C28*D28*0.00012</f>
@@ -3552,7 +3544,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B30" s="28">
         <v>45.02</v>
@@ -3603,8 +3595,8 @@
         <f>F30/E30</f>
         <v>0.23802474357618697</v>
       </c>
-      <c r="P30" s="30" t="s">
-        <v>413</v>
+      <c r="P30" s="36" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4113,7 +4105,7 @@
       <c r="L51" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="A10:Q34">
+  <sortState ref="A10:P34">
     <sortCondition descending="1" ref="L9"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/波动费用占比.xlsx
+++ b/波动费用占比.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="费用占比" sheetId="1" r:id="rId1"/>
     <sheet name="50日ATR" sheetId="3" r:id="rId2"/>
+    <sheet name="50ATRma看整k" sheetId="5" r:id="rId3"/>
+    <sheet name="5050概率" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="546">
   <si>
     <t>费用形式</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1548,29 +1550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>菜油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OI</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一手保证金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1618,6 +1597,497 @@
   <si>
     <t>平今3倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OI</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续次数</t>
+  </si>
+  <si>
+    <t>出现的次数</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>累积和</t>
+  </si>
+  <si>
+    <t>看C列，每个都是上一个的一半概率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次同向的概率是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次内转向的概率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>96.87%</t>
+    </r>
+  </si>
+  <si>
+    <t>count  895.000000  895.000000  895.000000</t>
+  </si>
+  <si>
+    <t>mean     0.061900    0.542322   -0.469705</t>
+  </si>
+  <si>
+    <t>std      0.810721    0.617726    0.575324</t>
+  </si>
+  <si>
+    <t>25%     -0.334916    0.175761   -0.656740</t>
+  </si>
+  <si>
+    <t>50%      0.023267    0.391389   -0.339723</t>
+  </si>
+  <si>
+    <t>75%      0.446059    0.747572   -0.127285</t>
+  </si>
+  <si>
+    <t>max      4.841334    4.919460    2.664768</t>
+  </si>
+  <si>
+    <t>count  1811.000000  1811.000000  1811.000000</t>
+  </si>
+  <si>
+    <t>mean      0.078891     0.563906    -0.432590</t>
+  </si>
+  <si>
+    <t>std       0.888201     0.747160     0.676665</t>
+  </si>
+  <si>
+    <t>25%      -0.428894     0.124883    -0.752389</t>
+  </si>
+  <si>
+    <t>50%       0.020300     0.438982    -0.362194</t>
+  </si>
+  <si>
+    <t>75%       0.544743     0.890920    -0.062263</t>
+  </si>
+  <si>
+    <t>max       4.705103     4.870775     3.418803</t>
+  </si>
+  <si>
+    <t>对比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count  1917.000000  1917.000000  1917.000000</t>
+  </si>
+  <si>
+    <t>mean      0.052769     0.544121    -0.423313</t>
+  </si>
+  <si>
+    <t>std       0.833310     0.721763     0.669045</t>
+  </si>
+  <si>
+    <t>min      -3.240059    -3.019146    -5.227882</t>
+  </si>
+  <si>
+    <t>25%      -0.398010     0.135501    -0.704225</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.417910    -0.352977</t>
+  </si>
+  <si>
+    <t>75%       0.448096     0.820051    -0.073565</t>
+  </si>
+  <si>
+    <t>count  1152.000000  1152.000000  1152.000000</t>
+  </si>
+  <si>
+    <t>mean      0.036963     0.535544    -0.463287</t>
+  </si>
+  <si>
+    <t>std       0.816024     0.658249     0.595685</t>
+  </si>
+  <si>
+    <t>25%      -0.403629     0.147886    -0.714784</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.388396    -0.382518</t>
+  </si>
+  <si>
+    <t>75%       0.416456     0.787503    -0.120813</t>
+  </si>
+  <si>
+    <t>max       3.526711     4.733728     2.984140</t>
+  </si>
+  <si>
+    <t>count  1079.000000  1079.000000  1079.000000</t>
+  </si>
+  <si>
+    <t>mean      0.050770     0.563628    -0.443977</t>
+  </si>
+  <si>
+    <t>std       0.791261     0.610059     0.602373</t>
+  </si>
+  <si>
+    <t>25%      -0.380364     0.197158    -0.676902</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.437227    -0.343446</t>
+  </si>
+  <si>
+    <t>75%       0.465414     0.837890    -0.115673</t>
+  </si>
+  <si>
+    <t>count  1224.000000  1224.000000  1224.000000</t>
+  </si>
+  <si>
+    <t>mean      0.034345     0.527819    -0.459847</t>
+  </si>
+  <si>
+    <t>std       0.856148     0.698009     0.666119</t>
+  </si>
+  <si>
+    <t>min      -3.250000    -1.689528    -3.724285</t>
+  </si>
+  <si>
+    <t>25%      -0.474668     0.105580    -0.771351</t>
+  </si>
+  <si>
+    <t>50%       0.004055     0.435415    -0.387253</t>
+  </si>
+  <si>
+    <t>75%       0.496735     0.856178    -0.065740</t>
+  </si>
+  <si>
+    <t>max       3.797170     3.915094     3.040973</t>
+  </si>
+  <si>
+    <t>count  1166.000000  1166.000000  1166.000000</t>
+  </si>
+  <si>
+    <t>mean     -0.016721     0.404033    -0.418576</t>
+  </si>
+  <si>
+    <t>std       0.714391     0.541990     0.609616</t>
+  </si>
+  <si>
+    <t>25%      -0.396818     0.129034    -0.708460</t>
+  </si>
+  <si>
+    <t>50%       0.025536     0.379701    -0.325025</t>
+  </si>
+  <si>
+    <t>75%       0.437273     0.684933    -0.026608</t>
+  </si>
+  <si>
+    <t>count  1114.000000  1114.000000  1114.000000</t>
+  </si>
+  <si>
+    <t>mean     -0.064622     0.409800    -0.496728</t>
+  </si>
+  <si>
+    <t>std       0.741831     0.552593     0.628010</t>
+  </si>
+  <si>
+    <t>25%      -0.424648     0.120018    -0.748491</t>
+  </si>
+  <si>
+    <t>50%       0.004347     0.369459    -0.366628</t>
+  </si>
+  <si>
+    <t>75%       0.322451     0.648390    -0.091470</t>
+  </si>
+  <si>
+    <t>max       2.646986     2.914798     1.262417</t>
+  </si>
+  <si>
+    <t>count  1238.000000  1238.000000  1238.000000</t>
+  </si>
+  <si>
+    <t>mean     -0.019051     0.431948    -0.472596</t>
+  </si>
+  <si>
+    <t>std       0.725833     0.533333     0.558147</t>
+  </si>
+  <si>
+    <t>25%      -0.426550     0.113737    -0.755551</t>
+  </si>
+  <si>
+    <t>50%       0.020635     0.349902    -0.354862</t>
+  </si>
+  <si>
+    <t>75%       0.382947     0.658877    -0.114484</t>
+  </si>
+  <si>
+    <t>count  1742.000000  1742.000000  1742.000000</t>
+  </si>
+  <si>
+    <t>mean     -0.002464     0.414583    -0.438494</t>
+  </si>
+  <si>
+    <t>std       0.747565     0.568241     0.629288</t>
+  </si>
+  <si>
+    <t>25%      -0.348866     0.106809    -0.672635</t>
+  </si>
+  <si>
+    <t>50%       0.017885     0.360828    -0.332626</t>
+  </si>
+  <si>
+    <t>75%       0.380796     0.669813    -0.078125</t>
+  </si>
+  <si>
+    <t>max       3.074866     3.275401     2.043400</t>
+  </si>
+  <si>
+    <t>count  914.000000  914.000000  914.000000</t>
+  </si>
+  <si>
+    <t>mean    -0.095994    0.437899   -0.571016</t>
+  </si>
+  <si>
+    <t>std      0.785264    0.506566    0.616828</t>
+  </si>
+  <si>
+    <t>min     -3.752469   -1.722301   -4.502237</t>
+  </si>
+  <si>
+    <t>25%     -0.487723    0.132981   -0.776329</t>
+  </si>
+  <si>
+    <t>50%     -0.059207    0.371242   -0.421496</t>
+  </si>
+  <si>
+    <t>75%      0.348172    0.646771   -0.184263</t>
+  </si>
+  <si>
+    <t>max      3.071581    4.139957    0.696180</t>
+  </si>
+  <si>
+    <t>ma20上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看整体没多少优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看整k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看收盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA向后置换5天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count  1090.000000  1090.000000  1090.000000</t>
+  </si>
+  <si>
+    <t>mean      0.053620     0.526722    -0.463680</t>
+  </si>
+  <si>
+    <t>std       0.787494     0.589640     0.551717</t>
+  </si>
+  <si>
+    <t>25%      -0.342013     0.175151    -0.660914</t>
+  </si>
+  <si>
+    <t>50%       0.025250     0.381132    -0.338486</t>
+  </si>
+  <si>
+    <t>75%       0.452654     0.735514    -0.133016</t>
+  </si>
+  <si>
+    <t>count  2170.000000  2170.000000  2170.000000</t>
+  </si>
+  <si>
+    <t>mean      0.063192     0.546821    -0.431842</t>
+  </si>
+  <si>
+    <t>std       0.865565     0.766083     0.667763</t>
+  </si>
+  <si>
+    <t>25%      -0.429093     0.117257    -0.757748</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.422273    -0.371149</t>
+  </si>
+  <si>
+    <t>75%       0.515907     0.857209    -0.058661</t>
+  </si>
+  <si>
+    <t>count  1425.000000  1425.000000  1425.000000</t>
+  </si>
+  <si>
+    <t>mean      0.039910     0.531231    -0.459469</t>
+  </si>
+  <si>
+    <t>std       0.803241     0.645424     0.579518</t>
+  </si>
+  <si>
+    <t>25%      -0.383877     0.157081    -0.713575</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.391061    -0.379957</t>
+  </si>
+  <si>
+    <t>75%       0.416171     0.785482    -0.121310</t>
+  </si>
+  <si>
+    <t>count  1344.000000  1344.000000  1344.000000</t>
+  </si>
+  <si>
+    <t>mean      0.042981     0.553743    -0.441139</t>
+  </si>
+  <si>
+    <t>std       0.772080     0.595819     0.584085</t>
+  </si>
+  <si>
+    <t>25%      -0.385645     0.195748    -0.682341</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.428276    -0.351088</t>
+  </si>
+  <si>
+    <t>75%       0.438773     0.814763    -0.103356</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count  1752.000000  1752.000000  1752.000000</t>
+  </si>
+  <si>
+    <t>mean      0.057541     0.553826    -0.439836</t>
+  </si>
+  <si>
+    <t>std       0.785661     0.663574     0.587329</t>
+  </si>
+  <si>
+    <t>min      -4.443054    -1.696429    -7.281553</t>
+  </si>
+  <si>
+    <t>25%      -0.353904     0.174572    -0.652604</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.423430    -0.353649</t>
+  </si>
+  <si>
+    <t>75%       0.400178     0.773004    -0.129372</t>
+  </si>
+  <si>
+    <t>max       6.039604     7.227723     3.875969</t>
+  </si>
+  <si>
+    <t>mean     -0.023943     0.436236    -0.472182</t>
+  </si>
+  <si>
+    <t>std       0.728579     0.560517     0.603518</t>
+  </si>
+  <si>
+    <t>min      -4.874835    -4.597107    -4.874835</t>
+  </si>
+  <si>
+    <t>25%      -0.402253     0.130208    -0.678295</t>
+  </si>
+  <si>
+    <t>50%       0.000000     0.368732    -0.367647</t>
+  </si>
+  <si>
+    <t>75%       0.364299     0.622172    -0.124792</t>
+  </si>
+  <si>
+    <t>max       3.793467     4.477612     2.823920</t>
   </si>
 </sst>
 </file>
@@ -1790,14 +2260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1806,6 +2268,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1901,7 +2368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1932,19 +2399,23 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2248,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2272,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>6</v>
@@ -2343,7 +2814,7 @@
         <v>403</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>391</v>
@@ -2373,9 +2844,9 @@
         <v>369</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F9" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>370</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2393,17 +2864,17 @@
       <c r="K9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L9" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>410</v>
+      <c r="L9" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>409</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>416</v>
+      <c r="O9" s="30" t="s">
+        <v>415</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>1</v>
@@ -2413,7 +2884,7 @@
       <c r="A10" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>400.9</v>
       </c>
       <c r="C10" s="17">
@@ -2422,44 +2893,44 @@
       <c r="D10" s="17">
         <v>5</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="34">
         <f>C10*D10*0.08</f>
         <v>9218</v>
       </c>
-      <c r="F10" s="35">
-        <f>B10*D10</f>
+      <c r="F10" s="34">
+        <f t="shared" ref="F10:F34" si="0">B10*D10</f>
         <v>2004.5</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>3.6</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>1.8</v>
       </c>
       <c r="J10" s="17">
         <v>5</v>
       </c>
       <c r="K10" s="17">
-        <f>(D10*J10)</f>
+        <f t="shared" ref="K10:K34" si="1">(D10*J10)</f>
         <v>25</v>
       </c>
-      <c r="L10" s="20">
-        <f>F10/(H10+I10)</f>
+      <c r="L10" s="17">
+        <f t="shared" ref="L10:L34" si="2">F10/(H10+I10)</f>
         <v>371.2037037037037</v>
       </c>
-      <c r="M10" s="26">
-        <f>B10/C10</f>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:M34" si="3">B10/C10</f>
         <v>1.7396398351052288E-2</v>
       </c>
       <c r="N10" s="17">
-        <f>F10/K10</f>
+        <f t="shared" ref="N10:N34" si="4">F10/K10</f>
         <v>80.180000000000007</v>
       </c>
-      <c r="O10" s="24">
-        <f>F10/E10</f>
+      <c r="O10" s="25">
+        <f t="shared" ref="O10:O34" si="5">F10/E10</f>
         <v>0.21745497938815361</v>
       </c>
       <c r="P10" s="5" t="s">
@@ -2470,7 +2941,7 @@
       <c r="A11" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>1915.8</v>
       </c>
       <c r="C11" s="17">
@@ -2479,44 +2950,44 @@
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="34">
         <f>C11*D11*0.07</f>
         <v>10154.200000000001</v>
       </c>
-      <c r="F11" s="35">
-        <f>B11*D11</f>
+      <c r="F11" s="34">
+        <f t="shared" si="0"/>
         <v>1915.8</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>3.6</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>1.8</v>
       </c>
       <c r="J11" s="17">
         <v>10</v>
       </c>
       <c r="K11" s="17">
-        <f>(D11*J11)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L11" s="20">
-        <f>F11/(H11+I11)</f>
+      <c r="L11" s="17">
+        <f t="shared" si="2"/>
         <v>354.77777777777777</v>
       </c>
-      <c r="M11" s="26">
-        <f>B11/C11</f>
+      <c r="M11" s="25">
+        <f t="shared" si="3"/>
         <v>1.320694884875224E-2</v>
       </c>
       <c r="N11" s="17">
-        <f>F11/K11</f>
+        <f t="shared" si="4"/>
         <v>191.57999999999998</v>
       </c>
-      <c r="O11" s="26">
-        <f>F11/E11</f>
+      <c r="O11" s="25">
+        <f t="shared" si="5"/>
         <v>0.1886706978393177</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -2524,10 +2995,10 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="27">
         <v>103.7</v>
       </c>
       <c r="C12" s="17">
@@ -2540,40 +3011,40 @@
         <f>C12*D12*0.07</f>
         <v>4558.4000000000005</v>
       </c>
-      <c r="F12" s="17">
-        <f>B12*D12</f>
+      <c r="F12" s="34">
+        <f t="shared" si="0"/>
         <v>1037</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>2.4</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>1.2</v>
       </c>
       <c r="J12" s="17">
         <v>1</v>
       </c>
       <c r="K12" s="17">
-        <f>(D12*J12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L12" s="20">
-        <f>F12/(H12+I12)</f>
+      <c r="L12" s="17">
+        <f t="shared" si="2"/>
         <v>288.0555555555556</v>
       </c>
-      <c r="M12" s="26">
-        <f>B12/C12</f>
+      <c r="M12" s="25">
+        <f t="shared" si="3"/>
         <v>1.5924447174447173E-2</v>
       </c>
       <c r="N12" s="17">
-        <f>F12/K12</f>
+        <f t="shared" si="4"/>
         <v>103.7</v>
       </c>
-      <c r="O12" s="24">
-        <f>F12/E12</f>
+      <c r="O12" s="25">
+        <f t="shared" si="5"/>
         <v>0.22749210249210247</v>
       </c>
       <c r="P12" s="5" t="s">
@@ -2584,7 +3055,7 @@
       <c r="A13" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>62.34</v>
       </c>
       <c r="C13" s="17">
@@ -2598,47 +3069,47 @@
         <v>2366</v>
       </c>
       <c r="F13" s="17">
-        <f>B13*D13</f>
+        <f t="shared" si="0"/>
         <v>623.40000000000009</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>1.2</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <v>1.2</v>
       </c>
       <c r="J13" s="17">
         <v>1</v>
       </c>
       <c r="K13" s="17">
-        <f>(D13*J13)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L13" s="20">
-        <f>F13/(H13+I13)</f>
+      <c r="L13" s="17">
+        <f t="shared" si="2"/>
         <v>259.75000000000006</v>
       </c>
       <c r="M13" s="23">
-        <f>B13/C13</f>
+        <f t="shared" si="3"/>
         <v>1.8443786982248522E-2</v>
       </c>
       <c r="N13" s="17">
-        <f>F13/K13</f>
+        <f t="shared" si="4"/>
         <v>62.340000000000011</v>
       </c>
-      <c r="O13" s="24">
-        <f>F13/E13</f>
+      <c r="O13" s="25">
+        <f t="shared" si="5"/>
         <v>0.26348267117497892</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="25" customFormat="1">
+    <row r="14" spans="1:16" s="24" customFormat="1">
       <c r="A14" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>290.3</v>
       </c>
       <c r="C14" s="17">
@@ -2647,55 +3118,55 @@
       <c r="D14" s="17">
         <v>10</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="34">
         <f>C14*D14*0.09</f>
         <v>9508.5</v>
       </c>
-      <c r="F14" s="35">
-        <f>B14*D14</f>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
         <v>2903</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <f>C14*D14*0.000054</f>
         <v>5.7050999999999998</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <f>C14*D14*0.000054</f>
         <v>5.7050999999999998</v>
       </c>
       <c r="J14" s="17">
         <v>5</v>
       </c>
-      <c r="K14" s="17">
-        <f>(D14*J14)</f>
+      <c r="K14" s="34">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L14" s="20">
-        <f>F14/(H14+I14)</f>
+      <c r="L14" s="17">
+        <f t="shared" si="2"/>
         <v>254.42148253317208</v>
       </c>
       <c r="M14" s="16">
-        <f>B14/C14</f>
+        <f t="shared" si="3"/>
         <v>2.7477520113582586E-2</v>
       </c>
       <c r="N14" s="17">
-        <f>F14/K14</f>
+        <f t="shared" si="4"/>
         <v>58.06</v>
       </c>
-      <c r="O14" s="24">
-        <f>F14/E14</f>
+      <c r="O14" s="25">
+        <f t="shared" si="5"/>
         <v>0.30530577903980649</v>
       </c>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" s="25" customFormat="1">
+    <row r="15" spans="1:16" s="24" customFormat="1">
       <c r="A15" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>285.89999999999998</v>
       </c>
       <c r="C15" s="17">
@@ -2708,18 +3179,18 @@
         <f>C15*D15*0.08</f>
         <v>8148</v>
       </c>
-      <c r="F15" s="35">
-        <f>B15*D15</f>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
         <v>1429.5</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <f>C15*D15*0.000048</f>
         <v>4.8887999999999998</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <f>C15*D15*0.000024</f>
         <v>2.4443999999999999</v>
       </c>
@@ -2727,34 +3198,34 @@
         <v>5</v>
       </c>
       <c r="K15" s="17">
-        <f>(D15*J15)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L15" s="20">
-        <f>F15/(H15+I15)</f>
+      <c r="L15" s="17">
+        <f t="shared" si="2"/>
         <v>194.93536246113567</v>
       </c>
-      <c r="M15" s="26">
-        <f>B15/C15</f>
+      <c r="M15" s="25">
+        <f t="shared" si="3"/>
         <v>1.4035346097201766E-2</v>
       </c>
       <c r="N15" s="17">
-        <f>F15/K15</f>
+        <f t="shared" si="4"/>
         <v>57.18</v>
       </c>
-      <c r="O15" s="26">
-        <f>F15/E15</f>
+      <c r="O15" s="25">
+        <f t="shared" si="5"/>
         <v>0.17544182621502208</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="25" customFormat="1">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:16" s="24" customFormat="1">
+      <c r="A16" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>193.3</v>
       </c>
       <c r="C16" s="17">
@@ -2767,51 +3238,51 @@
         <f>C16*D16*0.07</f>
         <v>4929.7500000000009</v>
       </c>
-      <c r="F16" s="17">
-        <f>B16*D16</f>
+      <c r="F16" s="34">
+        <f t="shared" si="0"/>
         <v>966.5</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>3.6</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <v>1.8</v>
       </c>
       <c r="J16" s="17">
         <v>5</v>
       </c>
       <c r="K16" s="17">
-        <f>(D16*J16)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L16" s="20">
-        <f>F16/(H16+I16)</f>
+      <c r="L16" s="17">
+        <f t="shared" si="2"/>
         <v>178.98148148148147</v>
       </c>
-      <c r="M16" s="26">
-        <f>B16/C16</f>
+      <c r="M16" s="25">
+        <f t="shared" si="3"/>
         <v>1.3723819666311679E-2</v>
       </c>
       <c r="N16" s="17">
-        <f>F16/K16</f>
+        <f t="shared" si="4"/>
         <v>38.659999999999997</v>
       </c>
-      <c r="O16" s="26">
-        <f>F16/E16</f>
+      <c r="O16" s="25">
+        <f t="shared" si="5"/>
         <v>0.19605456666159538</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="25" customFormat="1">
+    <row r="17" spans="1:16" s="24" customFormat="1">
       <c r="A17" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>45.1</v>
       </c>
       <c r="C17" s="17">
@@ -2825,39 +3296,39 @@
         <v>1450.8</v>
       </c>
       <c r="F17" s="17">
-        <f>B17*D17</f>
+        <f t="shared" si="0"/>
         <v>451</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>1.8</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>0.9</v>
       </c>
       <c r="J17" s="17">
         <v>1</v>
       </c>
       <c r="K17" s="17">
-        <f>(D17*J17)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L17" s="20">
-        <f>F17/(H17+I17)</f>
+      <c r="L17" s="17">
+        <f t="shared" si="2"/>
         <v>167.03703703703704</v>
       </c>
       <c r="M17" s="23">
-        <f>B17/C17</f>
+        <f t="shared" si="3"/>
         <v>1.8651778329197684E-2</v>
       </c>
       <c r="N17" s="17">
-        <f>F17/K17</f>
+        <f t="shared" si="4"/>
         <v>45.1</v>
       </c>
-      <c r="O17" s="24">
-        <f>F17/E17</f>
+      <c r="O17" s="25">
+        <f t="shared" si="5"/>
         <v>0.31086297215329473</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -2868,7 +3339,7 @@
       <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>54.1</v>
       </c>
       <c r="C18" s="17">
@@ -2882,48 +3353,48 @@
         <v>2135.7000000000003</v>
       </c>
       <c r="F18" s="17">
-        <f>B18*D18</f>
+        <f t="shared" si="0"/>
         <v>541</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>1.8</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>1.8</v>
       </c>
       <c r="J18" s="17">
         <v>1</v>
       </c>
       <c r="K18" s="17">
-        <f>(D18*J18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L18" s="20">
-        <f>F18/(H18+I18)</f>
+      <c r="L18" s="17">
+        <f t="shared" si="2"/>
         <v>150.27777777777777</v>
       </c>
       <c r="M18" s="23">
-        <f>B18/C18</f>
+        <f t="shared" si="3"/>
         <v>1.7731891183218617E-2</v>
       </c>
       <c r="N18" s="17">
-        <f>F18/K18</f>
+        <f t="shared" si="4"/>
         <v>54.1</v>
       </c>
-      <c r="O18" s="24">
-        <f>F18/E18</f>
+      <c r="O18" s="25">
+        <f t="shared" si="5"/>
         <v>0.25331273118883735</v>
       </c>
-      <c r="P18" s="25"/>
-    </row>
-    <row r="19" spans="1:16" s="25" customFormat="1">
-      <c r="A19" s="33" t="s">
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" s="24" customFormat="1">
+      <c r="A19" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>106</v>
       </c>
       <c r="C19" s="17">
@@ -2937,50 +3408,50 @@
         <v>2411.5000000000005</v>
       </c>
       <c r="F19" s="17">
-        <f>B19*D19</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>2.4</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>1.2</v>
       </c>
       <c r="J19" s="17">
         <v>5</v>
       </c>
       <c r="K19" s="17">
-        <f>(D19*J19)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="L19" s="20">
-        <f>F19/(H19+I19)</f>
+      <c r="L19" s="17">
+        <f t="shared" si="2"/>
         <v>147.22222222222223</v>
       </c>
-      <c r="M19" s="26">
-        <f>B19/C19</f>
+      <c r="M19" s="25">
+        <f t="shared" si="3"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="N19" s="17">
-        <f>F19/K19</f>
+      <c r="N19" s="34">
+        <f t="shared" si="4"/>
         <v>21.2</v>
       </c>
-      <c r="O19" s="24">
-        <f>F19/E19</f>
+      <c r="O19" s="25">
+        <f t="shared" si="5"/>
         <v>0.21978021978021975</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="25" customFormat="1">
+    <row r="20" spans="1:16" s="24" customFormat="1">
       <c r="A20" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>626.20000000000005</v>
       </c>
       <c r="C20" s="17">
@@ -2989,57 +3460,57 @@
       <c r="D20" s="17">
         <v>5</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="34">
         <f>C20*D20*0.07</f>
         <v>17976</v>
       </c>
-      <c r="F20" s="35">
-        <f>B20*D20</f>
+      <c r="F20" s="34">
+        <f t="shared" si="0"/>
         <v>3131</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <f>C20*D20*0.00006</f>
         <v>15.408000000000001</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f>C20*D20*0.00003</f>
         <v>7.7040000000000006</v>
       </c>
       <c r="J20" s="17">
         <v>10</v>
       </c>
-      <c r="K20" s="17">
-        <f>(D20*J20)</f>
+      <c r="K20" s="34">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="20">
-        <f>F20/(H20+I20)</f>
+      <c r="L20" s="17">
+        <f t="shared" si="2"/>
         <v>135.47075112495673</v>
       </c>
       <c r="M20" s="16">
-        <f>B20/C20</f>
+        <f t="shared" si="3"/>
         <v>1.2192367601246108E-2</v>
       </c>
       <c r="N20" s="17">
-        <f>F20/K20</f>
+        <f t="shared" si="4"/>
         <v>62.62</v>
       </c>
-      <c r="O20" s="26">
-        <f>F20/E20</f>
+      <c r="O20" s="25">
+        <f t="shared" si="5"/>
         <v>0.17417668001780151</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="27" customFormat="1">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="A21" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>69.28</v>
       </c>
       <c r="C21" s="17">
@@ -3053,47 +3524,47 @@
         <v>3907.4000000000005</v>
       </c>
       <c r="F21" s="17">
-        <f>B21*D21</f>
+        <f t="shared" si="0"/>
         <v>692.8</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>3</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>3</v>
       </c>
       <c r="J21" s="17">
         <v>2</v>
       </c>
       <c r="K21" s="17">
-        <f>(D21*J21)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L21" s="20">
-        <f>F21/(H21+I21)</f>
+      <c r="L21" s="17">
+        <f t="shared" si="2"/>
         <v>115.46666666666665</v>
       </c>
-      <c r="M21" s="26">
-        <f>B21/C21</f>
+      <c r="M21" s="25">
+        <f t="shared" si="3"/>
         <v>1.2411322106771767E-2</v>
       </c>
       <c r="N21" s="17">
-        <f>F21/K21</f>
+        <f t="shared" si="4"/>
         <v>34.64</v>
       </c>
-      <c r="O21" s="26">
-        <f>F21/E21</f>
+      <c r="O21" s="25">
+        <f t="shared" si="5"/>
         <v>0.17730460152531091</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="27" customFormat="1">
+    <row r="22" spans="1:16" s="26" customFormat="1">
       <c r="A22" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>52.16</v>
       </c>
       <c r="C22" s="17">
@@ -3107,39 +3578,39 @@
         <v>2541.0000000000005</v>
       </c>
       <c r="F22" s="17">
-        <f>B22*D22</f>
+        <f t="shared" si="0"/>
         <v>521.59999999999991</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <v>2.4</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <v>2.4</v>
       </c>
       <c r="J22" s="17">
         <v>1</v>
       </c>
       <c r="K22" s="17">
-        <f>(D22*J22)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L22" s="20">
-        <f>F22/(H22+I22)</f>
+      <c r="L22" s="17">
+        <f t="shared" si="2"/>
         <v>108.66666666666666</v>
       </c>
-      <c r="M22" s="26">
-        <f>B22/C22</f>
+      <c r="M22" s="25">
+        <f t="shared" si="3"/>
         <v>1.4369146005509641E-2</v>
       </c>
       <c r="N22" s="17">
-        <f>F22/K22</f>
+        <f t="shared" si="4"/>
         <v>52.159999999999989</v>
       </c>
-      <c r="O22" s="26">
-        <f>F22/E22</f>
+      <c r="O22" s="25">
+        <f t="shared" si="5"/>
         <v>0.20527351436442337</v>
       </c>
     </row>
@@ -3147,7 +3618,7 @@
       <c r="A23" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>55.04</v>
       </c>
       <c r="C23" s="17">
@@ -3161,39 +3632,39 @@
         <v>2578.5</v>
       </c>
       <c r="F23" s="17">
-        <f>B23*D23</f>
+        <f t="shared" si="0"/>
         <v>550.4</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>3.6</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>1.8</v>
       </c>
       <c r="J23" s="17">
         <v>1</v>
       </c>
       <c r="K23" s="17">
-        <f>(D23*J23)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L23" s="20">
-        <f>F23/(H23+I23)</f>
+      <c r="L23" s="17">
+        <f t="shared" si="2"/>
         <v>101.92592592592591</v>
       </c>
-      <c r="M23" s="26">
-        <f>B23/C23</f>
+      <c r="M23" s="25">
+        <f t="shared" si="3"/>
         <v>1.0672871824704284E-2</v>
       </c>
       <c r="N23" s="17">
-        <f>F23/K23</f>
+        <f t="shared" si="4"/>
         <v>55.04</v>
       </c>
-      <c r="O23" s="26">
-        <f>F23/E23</f>
+      <c r="O23" s="25">
+        <f t="shared" si="5"/>
         <v>0.21345743649408569</v>
       </c>
       <c r="P23" s="5" t="s">
@@ -3204,7 +3675,7 @@
       <c r="A24" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>118.44</v>
       </c>
       <c r="C24" s="17">
@@ -3218,17 +3689,17 @@
         <v>3154.2000000000003</v>
       </c>
       <c r="F24" s="17">
-        <f>B24*D24</f>
+        <f t="shared" si="0"/>
         <v>592.20000000000005</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <f>C24*D24*0.000072</f>
         <v>3.2443200000000001</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <f>C24*D24*0.000072</f>
         <v>3.2443200000000001</v>
       </c>
@@ -3236,32 +3707,32 @@
         <v>1</v>
       </c>
       <c r="K24" s="17">
-        <f>(D24*J24)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L24" s="17">
-        <f>F24/(H24+I24)</f>
+        <f t="shared" si="2"/>
         <v>91.267199289835773</v>
       </c>
-      <c r="M24" s="26">
-        <f>B24/C24</f>
+      <c r="M24" s="25">
+        <f t="shared" si="3"/>
         <v>1.3142476697736351E-2</v>
       </c>
       <c r="N24" s="17">
-        <f>F24/K24</f>
+        <f t="shared" si="4"/>
         <v>118.44000000000001</v>
       </c>
-      <c r="O24" s="26">
-        <f>F24/E24</f>
+      <c r="O24" s="25">
+        <f t="shared" si="5"/>
         <v>0.1877496671105193</v>
       </c>
-      <c r="P24" s="27"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>266.94</v>
       </c>
       <c r="C25" s="17">
@@ -3270,55 +3741,55 @@
       <c r="D25" s="17">
         <v>10</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="34">
         <f>C25*D25*0.11</f>
         <v>10652.4</v>
       </c>
-      <c r="F25" s="35">
-        <f>B25*D25</f>
+      <c r="F25" s="34">
+        <f t="shared" si="0"/>
         <v>2669.4</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>12</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>18</v>
       </c>
       <c r="J25" s="17">
         <v>1</v>
       </c>
       <c r="K25" s="17">
-        <f>(D25*J25)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L25" s="17">
-        <f>F25/(H25+I25)</f>
+        <f t="shared" si="2"/>
         <v>88.98</v>
       </c>
-      <c r="M25" s="26">
-        <f>B25/C25</f>
+      <c r="M25" s="25">
+        <f t="shared" si="3"/>
         <v>2.7565055762081785E-2</v>
       </c>
       <c r="N25" s="17">
-        <f>F25/K25</f>
+        <f t="shared" si="4"/>
         <v>266.94</v>
       </c>
-      <c r="O25" s="24">
-        <f>F25/E25</f>
+      <c r="O25" s="25">
+        <f t="shared" si="5"/>
         <v>0.25059141601892532</v>
       </c>
-      <c r="P25" s="30" t="s">
-        <v>412</v>
+      <c r="P25" s="29" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>62</v>
       </c>
       <c r="C26" s="17">
@@ -3332,17 +3803,17 @@
         <v>2449.6</v>
       </c>
       <c r="F26" s="17">
-        <f>B26*D26</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="H26" s="28">
+        <v>412</v>
+      </c>
+      <c r="H26" s="27">
         <f>C26*D26*0.00012</f>
         <v>3.6743999999999999</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <f>C26*D26*0.00012</f>
         <v>3.6743999999999999</v>
       </c>
@@ -3350,32 +3821,32 @@
         <v>2</v>
       </c>
       <c r="K26" s="17">
-        <f>(D26*J26)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L26" s="17">
-        <f>F26/(H26+I26)</f>
+        <f t="shared" si="2"/>
         <v>84.36751578489006</v>
       </c>
       <c r="M26" s="23">
-        <f>B26/C26</f>
+        <f t="shared" si="3"/>
         <v>2.0248203788373612E-2</v>
       </c>
       <c r="N26" s="17">
-        <f>F26/K26</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="O26" s="24">
-        <f>F26/E26</f>
+      <c r="O26" s="25">
+        <f t="shared" si="5"/>
         <v>0.25310254735467014</v>
       </c>
-      <c r="P26" s="27"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>72.040000000000006</v>
       </c>
       <c r="C27" s="17">
@@ -3389,17 +3860,17 @@
         <v>3329.1</v>
       </c>
       <c r="F27" s="17">
-        <f>B27*D27</f>
+        <f t="shared" si="0"/>
         <v>720.40000000000009</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="H27" s="28">
+        <v>412</v>
+      </c>
+      <c r="H27" s="27">
         <f>C27*D27*0.00012</f>
         <v>4.4388000000000005</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <f>C27*D27*0.00012</f>
         <v>4.4388000000000005</v>
       </c>
@@ -3407,32 +3878,32 @@
         <v>1</v>
       </c>
       <c r="K27" s="17">
-        <f>(D27*J27)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L27" s="17">
-        <f>F27/(H27+I27)</f>
+        <f t="shared" si="2"/>
         <v>81.14805803370281</v>
       </c>
       <c r="M27" s="23">
-        <f>B27/C27</f>
+        <f t="shared" si="3"/>
         <v>1.9475533928088675E-2</v>
       </c>
       <c r="N27" s="17">
-        <f>F27/K27</f>
+        <f t="shared" si="4"/>
         <v>72.040000000000006</v>
       </c>
-      <c r="O27" s="24">
-        <f>F27/E27</f>
+      <c r="O27" s="25">
+        <f t="shared" si="5"/>
         <v>0.21639482142320751</v>
       </c>
-      <c r="P27" s="27"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>70.44</v>
       </c>
       <c r="C28" s="17">
@@ -3446,17 +3917,17 @@
         <v>3062.4</v>
       </c>
       <c r="F28" s="17">
-        <f>B28*D28</f>
+        <f t="shared" si="0"/>
         <v>704.4</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="H28" s="28">
+        <v>412</v>
+      </c>
+      <c r="H28" s="27">
         <f>C28*D28*0.00012</f>
         <v>4.5936000000000003</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <f>C28*D28*0.00012</f>
         <v>4.5936000000000003</v>
       </c>
@@ -3464,23 +3935,23 @@
         <v>1</v>
       </c>
       <c r="K28" s="17">
-        <f>(D28*J28)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L28" s="17">
-        <f>F28/(H28+I28)</f>
+      <c r="L28" s="34">
+        <f t="shared" si="2"/>
         <v>76.671891327063733</v>
       </c>
       <c r="M28" s="23">
-        <f>B28/C28</f>
+        <f t="shared" si="3"/>
         <v>1.8401253918495297E-2</v>
       </c>
       <c r="N28" s="17">
-        <f>F28/K28</f>
+        <f t="shared" si="4"/>
         <v>70.44</v>
       </c>
-      <c r="O28" s="24">
-        <f>F28/E28</f>
+      <c r="O28" s="25">
+        <f t="shared" si="5"/>
         <v>0.23001567398119122</v>
       </c>
       <c r="P28" s="4"/>
@@ -3489,7 +3960,7 @@
       <c r="A29" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>34.159999999999997</v>
       </c>
       <c r="C29" s="17">
@@ -3503,17 +3974,17 @@
         <v>3376.7999999999997</v>
       </c>
       <c r="F29" s="17">
-        <f>B29*D29</f>
+        <f t="shared" si="0"/>
         <v>512.4</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <f>C29*D29*0.00006</f>
         <v>3.3768000000000002</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <f>C29*D29*0.00006</f>
         <v>3.3768000000000002</v>
       </c>
@@ -3521,32 +3992,32 @@
         <v>1</v>
       </c>
       <c r="K29" s="17">
-        <f>(D29*J29)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L29" s="17">
-        <f>F29/(H29+I29)</f>
+      <c r="L29" s="34">
+        <f t="shared" si="2"/>
         <v>75.870646766169145</v>
       </c>
       <c r="M29" s="16">
-        <f>B29/C29</f>
+        <f t="shared" si="3"/>
         <v>9.1044776119402968E-3</v>
       </c>
       <c r="N29" s="17">
-        <f>F29/K29</f>
+        <f t="shared" si="4"/>
         <v>34.159999999999997</v>
       </c>
-      <c r="O29" s="34">
-        <f>F29/E29</f>
+      <c r="O29" s="33">
+        <f t="shared" si="5"/>
         <v>0.15174129353233831</v>
       </c>
-      <c r="P29" s="27"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="B30" s="28">
+      <c r="A30" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="27">
         <v>45.02</v>
       </c>
       <c r="C30" s="17">
@@ -3560,50 +4031,50 @@
         <v>1891.4</v>
       </c>
       <c r="F30" s="17">
-        <f>B30*D30</f>
+        <f t="shared" si="0"/>
         <v>450.20000000000005</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>2.4</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <v>4.8</v>
       </c>
       <c r="J30" s="17">
         <v>1</v>
       </c>
       <c r="K30" s="17">
-        <f>(D30*J30)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L30" s="17">
-        <f>F30/(H30+I30)</f>
+      <c r="L30" s="34">
+        <f t="shared" si="2"/>
         <v>62.527777777777793</v>
       </c>
       <c r="M30" s="23">
-        <f>B30/C30</f>
+        <f t="shared" si="3"/>
         <v>1.6661732050333087E-2</v>
       </c>
       <c r="N30" s="17">
-        <f>F30/K30</f>
+        <f t="shared" si="4"/>
         <v>45.02</v>
       </c>
-      <c r="O30" s="24">
-        <f>F30/E30</f>
+      <c r="O30" s="25">
+        <f t="shared" si="5"/>
         <v>0.23802474357618697</v>
       </c>
-      <c r="P30" s="36" t="s">
-        <v>417</v>
+      <c r="P30" s="35" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>61.2</v>
       </c>
       <c r="C31" s="17">
@@ -3617,39 +4088,39 @@
         <v>1685.3999999999999</v>
       </c>
       <c r="F31" s="17">
-        <f>B31*D31</f>
+        <f t="shared" si="0"/>
         <v>306</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>3.6</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="27">
         <v>1.8</v>
       </c>
       <c r="J31" s="17">
         <v>2</v>
       </c>
       <c r="K31" s="17">
-        <f>(D31*J31)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L31" s="17">
-        <f>F31/(H31+I31)</f>
+      <c r="L31" s="34">
+        <f t="shared" si="2"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="M31" s="26">
-        <f>B31/C31</f>
+      <c r="M31" s="25">
+        <f t="shared" si="3"/>
         <v>1.0893556425774298E-2</v>
       </c>
       <c r="N31" s="17">
-        <f>F31/K31</f>
+        <f t="shared" si="4"/>
         <v>30.6</v>
       </c>
-      <c r="O31" s="26">
-        <f>F31/E31</f>
+      <c r="O31" s="25">
+        <f t="shared" si="5"/>
         <v>0.18155927376290495</v>
       </c>
       <c r="P31" s="5" t="s">
@@ -3657,10 +4128,10 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>11.56</v>
       </c>
       <c r="C32" s="17">
@@ -3674,39 +4145,39 @@
         <v>1243.2</v>
       </c>
       <c r="F32" s="17">
-        <f>B32*D32</f>
+        <f t="shared" si="0"/>
         <v>115.60000000000001</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>1.44</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <v>0.72</v>
       </c>
       <c r="J32" s="17">
         <v>1</v>
       </c>
       <c r="K32" s="17">
-        <f>(D32*J32)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L32" s="17">
-        <f>F32/(H32+I32)</f>
+      <c r="L32" s="34">
+        <f t="shared" si="2"/>
         <v>53.518518518518519</v>
       </c>
       <c r="M32" s="16">
-        <f>B32/C32</f>
+        <f t="shared" si="3"/>
         <v>6.5090090090090093E-3</v>
       </c>
-      <c r="N32" s="35">
-        <f>F32/K32</f>
+      <c r="N32" s="34">
+        <f t="shared" si="4"/>
         <v>11.56</v>
       </c>
-      <c r="O32" s="34">
-        <f>F32/E32</f>
+      <c r="O32" s="33">
+        <f t="shared" si="5"/>
         <v>9.298584298584299E-2</v>
       </c>
       <c r="P32" s="5" t="s">
@@ -3714,10 +4185,10 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>68.12</v>
       </c>
       <c r="C33" s="17">
@@ -3731,17 +4202,17 @@
         <v>3376</v>
       </c>
       <c r="F33" s="17">
-        <f>B33*D33</f>
+        <f t="shared" si="0"/>
         <v>681.2</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <f>C33*D33*0.00018</f>
         <v>7.5960000000000001</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <f>C33*D33*0.00018</f>
         <v>7.5960000000000001</v>
       </c>
@@ -3749,32 +4220,32 @@
         <v>1</v>
       </c>
       <c r="K33" s="17">
-        <f>(D33*J33)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L33" s="17">
-        <f>F33/(H33+I33)</f>
+      <c r="L33" s="34">
+        <f t="shared" si="2"/>
         <v>44.839389152185362</v>
       </c>
       <c r="M33" s="23">
-        <f>B33/C33</f>
+        <f t="shared" si="3"/>
         <v>1.614218009478673E-2</v>
       </c>
       <c r="N33" s="17">
-        <f>F33/K33</f>
+        <f t="shared" si="4"/>
         <v>68.12</v>
       </c>
-      <c r="O33" s="26">
-        <f>F33/E33</f>
+      <c r="O33" s="25">
+        <f t="shared" si="5"/>
         <v>0.20177725118483414</v>
       </c>
-      <c r="P33" s="27"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>21.26</v>
       </c>
       <c r="C34" s="17">
@@ -3788,43 +4259,43 @@
         <v>2013.2000000000003</v>
       </c>
       <c r="F34" s="17">
-        <f>B34*D34</f>
+        <f t="shared" si="0"/>
         <v>425.20000000000005</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>3.6</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <v>13.8</v>
       </c>
       <c r="J34" s="17">
         <v>1</v>
       </c>
       <c r="K34" s="17">
-        <f>(D34*J34)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L34" s="17">
-        <f>F34/(H34+I34)</f>
+      <c r="L34" s="34">
+        <f t="shared" si="2"/>
         <v>24.436781609195403</v>
       </c>
-      <c r="M34" s="26">
-        <f>B34/C34</f>
+      <c r="M34" s="25">
+        <f t="shared" si="3"/>
         <v>1.4784422809457581E-2</v>
       </c>
-      <c r="N34" s="17">
-        <f>F34/K34</f>
+      <c r="N34" s="34">
+        <f t="shared" si="4"/>
         <v>21.26</v>
       </c>
-      <c r="O34" s="26">
-        <f>F34/E34</f>
+      <c r="O34" s="25">
+        <f t="shared" si="5"/>
         <v>0.21120604013510827</v>
       </c>
-      <c r="P34" s="30" t="s">
-        <v>412</v>
+      <c r="P34" s="29" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3835,15 +4306,15 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="27"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="19" t="s">
@@ -3858,8 +4329,8 @@
         <v>623.40000000000009</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17">
@@ -3874,11 +4345,11 @@
         <f>MEDIAN(N10:N34)</f>
         <v>55.04</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="25">
         <f>MEDIAN(O10:O34)</f>
         <v>0.21345743649408569</v>
       </c>
-      <c r="P36" s="27"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="17"/>
@@ -3888,8 +4359,8 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -3903,8 +4374,8 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -3918,8 +4389,8 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -3933,8 +4404,8 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4116,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD115"/>
+  <dimension ref="A1:AD134"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4176,6 +4647,7 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29">
+      <c r="A5" s="40"/>
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -5642,7 +6114,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="1:15">
       <c r="B113" t="s">
         <v>154</v>
       </c>
@@ -5654,7 +6126,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="1:15">
       <c r="B114" t="s">
         <v>155</v>
       </c>
@@ -5666,7 +6138,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="1:15">
       <c r="B115" t="s">
         <v>156</v>
       </c>
@@ -5675,6 +6147,114 @@
       </c>
       <c r="O115" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="37"/>
+      <c r="B119" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="37"/>
+      <c r="B120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="37"/>
+      <c r="B121" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="37"/>
+      <c r="B122" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="37"/>
+      <c r="B123" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="37"/>
+      <c r="B124" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="37"/>
+      <c r="B125" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="37"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="37"/>
+      <c r="B128" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="37"/>
+      <c r="B129" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="37"/>
+      <c r="B130" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="37"/>
+      <c r="B131" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="37"/>
+      <c r="B132" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="37"/>
+      <c r="B133" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="37"/>
+      <c r="B134" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5682,4 +6262,2314 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80:O87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="G2" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="N4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="N5" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="O5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="37"/>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="N6" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="O6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="37"/>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="37"/>
+      <c r="B8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="37"/>
+      <c r="B9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="37"/>
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="37"/>
+      <c r="B11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>493</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="N13" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="37"/>
+      <c r="B14" t="s">
+        <v>494</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="37"/>
+      <c r="B15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="37"/>
+      <c r="B16" t="s">
+        <v>496</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="37"/>
+      <c r="B17" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="37"/>
+      <c r="B18" t="s">
+        <v>498</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="37"/>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="37"/>
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="N22" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="N23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="37"/>
+      <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="37"/>
+      <c r="B25" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="37"/>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="37"/>
+      <c r="B27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="37"/>
+      <c r="B28" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="37"/>
+      <c r="B29" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="37"/>
+      <c r="B30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="N32" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="N33" s="37"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="N38" s="37"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="N41" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42" t="s">
+        <v>439</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="N42" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="37"/>
+      <c r="B43" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="37"/>
+      <c r="B44" t="s">
+        <v>441</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="37"/>
+      <c r="B45" t="s">
+        <v>442</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="37"/>
+      <c r="B46" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="37"/>
+      <c r="B47" t="s">
+        <v>444</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="37"/>
+      <c r="B48" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="37"/>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>486</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="N51" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="37"/>
+      <c r="B52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="37"/>
+      <c r="B53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="N53" s="37"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="37"/>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="N54" s="37"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="37"/>
+      <c r="B55" t="s">
+        <v>489</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="N55" s="37"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="37"/>
+      <c r="B56" t="s">
+        <v>490</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="37"/>
+      <c r="B57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="37"/>
+      <c r="B58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="N60" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>446</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="N61" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="37"/>
+      <c r="B62" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="37"/>
+      <c r="B63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="37"/>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="37"/>
+      <c r="B65" t="s">
+        <v>449</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="37"/>
+      <c r="B66" t="s">
+        <v>450</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="37"/>
+      <c r="B67" t="s">
+        <v>451</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="37"/>
+      <c r="B68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="N69" s="37"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>480</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="N70" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="37"/>
+      <c r="B71" t="s">
+        <v>481</v>
+      </c>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="N71" s="37"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="37"/>
+      <c r="B72" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="N72" s="37"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="37"/>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="N73" s="37"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="37"/>
+      <c r="B74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="N74" s="37"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="37"/>
+      <c r="B75" t="s">
+        <v>484</v>
+      </c>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="N75" s="37"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="37"/>
+      <c r="B76" t="s">
+        <v>485</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="37"/>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="N77" s="37"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="N79" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>453</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="N80" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="37"/>
+      <c r="B81" t="s">
+        <v>454</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="37"/>
+      <c r="B82" t="s">
+        <v>455</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="37"/>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="37"/>
+      <c r="B84" t="s">
+        <v>456</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="37"/>
+      <c r="B85" t="s">
+        <v>457</v>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="37"/>
+      <c r="B86" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="37"/>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="N88" s="37"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>473</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="N89" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="37"/>
+      <c r="B90" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="N90" s="37"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="37"/>
+      <c r="B91" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="N91" s="37"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="37"/>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="N92" s="37"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="37"/>
+      <c r="B93" t="s">
+        <v>476</v>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="N93" s="37"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="37"/>
+      <c r="B94" t="s">
+        <v>477</v>
+      </c>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="N94" s="37"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="37"/>
+      <c r="B95" t="s">
+        <v>478</v>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="N95" s="37"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="37"/>
+      <c r="B96" t="s">
+        <v>479</v>
+      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="N96" s="37"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="N97" s="37"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="N98" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>459</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="N99" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="37"/>
+      <c r="B100" t="s">
+        <v>460</v>
+      </c>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="N100" s="37"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="37"/>
+      <c r="B101" t="s">
+        <v>461</v>
+      </c>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="N101" s="37"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="37"/>
+      <c r="B102" t="s">
+        <v>462</v>
+      </c>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="N102" s="37"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="37"/>
+      <c r="B103" t="s">
+        <v>463</v>
+      </c>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="N103" s="37"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="37"/>
+      <c r="B104" t="s">
+        <v>464</v>
+      </c>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="N104" s="37"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="37"/>
+      <c r="B105" t="s">
+        <v>465</v>
+      </c>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="N105" s="37"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="37"/>
+      <c r="B106" t="s">
+        <v>466</v>
+      </c>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="N106" s="37"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="N107" s="37"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>467</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="N108" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="37"/>
+      <c r="B109" t="s">
+        <v>468</v>
+      </c>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="N109" s="37"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="37"/>
+      <c r="B110" t="s">
+        <v>469</v>
+      </c>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="N110" s="37"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="37"/>
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="N111" s="37"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="37"/>
+      <c r="B112" t="s">
+        <v>470</v>
+      </c>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="N112" s="37"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="37"/>
+      <c r="B113" t="s">
+        <v>471</v>
+      </c>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="N113" s="37"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="37"/>
+      <c r="B114" t="s">
+        <v>472</v>
+      </c>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="N114" s="37"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="37"/>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="N115" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37">
+        <v>250358</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.50061187273047203</v>
+      </c>
+      <c r="D3" s="37">
+        <v>250358</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0.50061187273047203</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37">
+        <v>124661</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.24927015180842385</v>
+      </c>
+      <c r="D4" s="37">
+        <v>375019</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.74988202453889596</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37">
+        <v>62537</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.12504799001807623</v>
+      </c>
+      <c r="D5" s="37">
+        <v>437556</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.87493001455697217</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37">
+        <v>31180</v>
+      </c>
+      <c r="C6" s="39">
+        <v>6.2347031817381986E-2</v>
+      </c>
+      <c r="D6" s="37">
+        <v>468736</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.93727704637435416</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="40" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37">
+        <v>15730</v>
+      </c>
+      <c r="C7" s="39">
+        <v>3.1453457680802391E-2</v>
+      </c>
+      <c r="D7" s="37">
+        <v>484466</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.96873050405515648</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37">
+        <v>7833</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1.5662742149632876E-2</v>
+      </c>
+      <c r="D8" s="37">
+        <v>492299</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.98439324620478941</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37">
+        <v>3970</v>
+      </c>
+      <c r="C9" s="39">
+        <v>7.9383488234447235E-3</v>
+      </c>
+      <c r="D9" s="37">
+        <v>496269</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.99233159502823409</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="37">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1953</v>
+      </c>
+      <c r="C10" s="39">
+        <v>3.9051877209540418E-3</v>
+      </c>
+      <c r="D10" s="37">
+        <v>498222</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.99623678274918814</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="37">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37">
+        <v>897</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1.7936269255994753E-3</v>
+      </c>
+      <c r="D11" s="37">
+        <v>499119</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.99803040967478762</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="37">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37">
+        <v>489</v>
+      </c>
+      <c r="C12" s="39">
+        <v>9.7779661830339282E-4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>499608</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.99900820629309106</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="37">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37">
+        <v>246</v>
+      </c>
+      <c r="C13" s="39">
+        <v>4.918976852814615E-4</v>
+      </c>
+      <c r="D13" s="37">
+        <v>499854</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0.99950010397837252</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="37">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37">
+        <v>122</v>
+      </c>
+      <c r="C14" s="39">
+        <v>2.4394925855422071E-4</v>
+      </c>
+      <c r="D14" s="37">
+        <v>499976</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0.99974405323692672</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37">
+        <v>65</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1.2997296562315038E-4</v>
+      </c>
+      <c r="D15" s="37">
+        <v>500041</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0.99987402620254984</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="37">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37">
+        <v>31</v>
+      </c>
+      <c r="C16" s="39">
+        <v>6.1987106681810183E-5</v>
+      </c>
+      <c r="D16" s="37">
+        <v>500072</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.99993601330923165</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="37">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37">
+        <v>17</v>
+      </c>
+      <c r="C17" s="39">
+        <v>3.3992929470670104E-5</v>
+      </c>
+      <c r="D17" s="37">
+        <v>500089</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.99997000623870236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="37">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37">
+        <v>4</v>
+      </c>
+      <c r="C18" s="39">
+        <v>7.9983363460400245E-6</v>
+      </c>
+      <c r="D18" s="37">
+        <v>500093</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.99997800457504837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="37">
+        <v>17</v>
+      </c>
+      <c r="B19" s="37">
+        <v>5</v>
+      </c>
+      <c r="C19" s="39">
+        <v>9.9979204325500302E-6</v>
+      </c>
+      <c r="D19" s="37">
+        <v>500098</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.99998800249548092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="37">
+        <v>18</v>
+      </c>
+      <c r="B20" s="37">
+        <v>3</v>
+      </c>
+      <c r="C20" s="39">
+        <v>5.9987522595300179E-6</v>
+      </c>
+      <c r="D20" s="37">
+        <v>500101</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.99999400124774052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="37">
+        <v>19</v>
+      </c>
+      <c r="B21" s="37">
+        <v>3</v>
+      </c>
+      <c r="C21" s="39">
+        <v>5.9987522595300179E-6</v>
+      </c>
+      <c r="D21" s="37">
+        <v>500104</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="37">
+        <v>20</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="37">
+        <v>21</v>
+      </c>
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="37">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="37">
+        <v>23</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="37">
+        <v>24</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="37">
+        <v>25</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="37">
+        <v>26</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="37">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>